--- a/docs/report/report.xlsx
+++ b/docs/report/report.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/nomed/Downloads/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{EEE4651B-303D-EC49-A83B-19E3E06EFC01}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{02185DF7-E04F-9249-A52B-7FE8BA87CB34}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="500" windowWidth="33600" windowHeight="19320" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="142" uniqueCount="12">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="136" uniqueCount="11">
   <si>
     <t>id_oven_</t>
   </si>
@@ -37,19 +37,16 @@
     <t>dt_end</t>
   </si>
   <si>
-    <t>downtime</t>
+    <t>preparing</t>
   </si>
   <si>
     <t>nagrev</t>
   </si>
   <si>
-    <t>preparing</t>
+    <t>wait_time_to_change</t>
   </si>
   <si>
     <t>prokat</t>
-  </si>
-  <si>
-    <t>wait_time_to_change</t>
   </si>
   <si>
     <t>kovka</t>
@@ -423,17 +420,15 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:E138"/>
+  <dimension ref="A1:E132"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="142" workbookViewId="0">
-      <selection activeCell="C3" sqref="C3"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="E10" sqref="E10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="8.33203125" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="8.1640625" bestFit="1" customWidth="1"/>
-    <col min="3" max="5" width="17.6640625" bestFit="1" customWidth="1"/>
+    <col min="4" max="5" width="17.6640625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:5" x14ac:dyDescent="0.2">
@@ -458,16 +453,16 @@
         <v>0</v>
       </c>
       <c r="B2">
-        <v>-1</v>
+        <v>0</v>
       </c>
       <c r="C2" t="s">
         <v>5</v>
       </c>
       <c r="D2" s="2">
-        <v>45078.984722222223</v>
+        <v>45078</v>
       </c>
       <c r="E2" s="2">
-        <v>45078.999305555553</v>
+        <v>45078.082638888889</v>
       </c>
     </row>
     <row r="3" spans="1:5" x14ac:dyDescent="0.2">
@@ -498,10 +493,10 @@
         <v>7</v>
       </c>
       <c r="D4" s="2">
-        <v>45078</v>
+        <v>45078.253472222219</v>
       </c>
       <c r="E4" s="2">
-        <v>45078.082638888889</v>
+        <v>45078.263194444437</v>
       </c>
     </row>
     <row r="5" spans="1:5" x14ac:dyDescent="0.2">
@@ -526,16 +521,16 @@
         <v>0</v>
       </c>
       <c r="B6">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="C6" t="s">
-        <v>9</v>
+        <v>6</v>
       </c>
       <c r="D6" s="2">
-        <v>45078.253472222219</v>
+        <v>45078.274305555547</v>
       </c>
       <c r="E6" s="2">
-        <v>45078.263194444437</v>
+        <v>45078.326388888891</v>
       </c>
     </row>
     <row r="7" spans="1:5" x14ac:dyDescent="0.2">
@@ -546,13 +541,13 @@
         <v>2</v>
       </c>
       <c r="C7" t="s">
-        <v>10</v>
+        <v>7</v>
       </c>
       <c r="D7" s="2">
-        <v>45078.337500000001</v>
+        <v>45078.32708333333</v>
       </c>
       <c r="E7" s="2">
-        <v>45078.347222222219</v>
+        <v>45078.336805555547</v>
       </c>
     </row>
     <row r="8" spans="1:5" x14ac:dyDescent="0.2">
@@ -563,13 +558,13 @@
         <v>2</v>
       </c>
       <c r="C8" t="s">
-        <v>6</v>
+        <v>9</v>
       </c>
       <c r="D8" s="2">
-        <v>45078.274305555547</v>
+        <v>45078.337500000001</v>
       </c>
       <c r="E8" s="2">
-        <v>45078.326388888891</v>
+        <v>45078.347222222219</v>
       </c>
     </row>
     <row r="9" spans="1:5" x14ac:dyDescent="0.2">
@@ -577,16 +572,16 @@
         <v>0</v>
       </c>
       <c r="B9">
-        <v>2</v>
+        <v>17</v>
       </c>
       <c r="C9" t="s">
-        <v>9</v>
+        <v>5</v>
       </c>
       <c r="D9" s="2">
-        <v>45078.32708333333</v>
+        <v>45078.347916666673</v>
       </c>
       <c r="E9" s="2">
-        <v>45078.336805555547</v>
+        <v>45078.430555555547</v>
       </c>
     </row>
     <row r="10" spans="1:5" x14ac:dyDescent="0.2">
@@ -617,10 +612,10 @@
         <v>7</v>
       </c>
       <c r="D11" s="2">
-        <v>45078.347916666673</v>
+        <v>45078.55972222222</v>
       </c>
       <c r="E11" s="2">
-        <v>45078.430555555547</v>
+        <v>45078.569444444453</v>
       </c>
     </row>
     <row r="12" spans="1:5" x14ac:dyDescent="0.2">
@@ -645,16 +640,16 @@
         <v>0</v>
       </c>
       <c r="B13">
-        <v>17</v>
+        <v>29</v>
       </c>
       <c r="C13" t="s">
-        <v>9</v>
+        <v>6</v>
       </c>
       <c r="D13" s="2">
-        <v>45078.55972222222</v>
+        <v>45078.580555555563</v>
       </c>
       <c r="E13" s="2">
-        <v>45078.569444444453</v>
+        <v>45078.925000000003</v>
       </c>
     </row>
     <row r="14" spans="1:5" x14ac:dyDescent="0.2">
@@ -665,13 +660,13 @@
         <v>29</v>
       </c>
       <c r="C14" t="s">
-        <v>10</v>
+        <v>7</v>
       </c>
       <c r="D14" s="2">
-        <v>45078.734722222223</v>
+        <v>45078.724305555559</v>
       </c>
       <c r="E14" s="2">
-        <v>45078.931944444441</v>
+        <v>45078.734027777777</v>
       </c>
     </row>
     <row r="15" spans="1:5" x14ac:dyDescent="0.2">
@@ -682,13 +677,13 @@
         <v>29</v>
       </c>
       <c r="C15" t="s">
-        <v>6</v>
+        <v>9</v>
       </c>
       <c r="D15" s="2">
-        <v>45078.580555555563</v>
+        <v>45078.734722222223</v>
       </c>
       <c r="E15" s="2">
-        <v>45078.925000000003</v>
+        <v>45078.931944444441</v>
       </c>
     </row>
     <row r="16" spans="1:5" x14ac:dyDescent="0.2">
@@ -696,16 +691,16 @@
         <v>0</v>
       </c>
       <c r="B16">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="C16" t="s">
-        <v>9</v>
+        <v>6</v>
       </c>
       <c r="D16" s="2">
-        <v>45078.724305555559</v>
+        <v>45078.932638888888</v>
       </c>
       <c r="E16" s="2">
-        <v>45078.734027777777</v>
+        <v>45078.963194444441</v>
       </c>
     </row>
     <row r="17" spans="1:5" x14ac:dyDescent="0.2">
@@ -716,13 +711,13 @@
         <v>30</v>
       </c>
       <c r="C17" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="D17" s="2">
-        <v>45078.932638888888</v>
+        <v>45078.963888888888</v>
       </c>
       <c r="E17" s="2">
-        <v>45078.963194444441</v>
+        <v>45078.973611111112</v>
       </c>
     </row>
     <row r="18" spans="1:5" x14ac:dyDescent="0.2">
@@ -744,19 +739,19 @@
     </row>
     <row r="19" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A19">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="B19">
-        <v>30</v>
+        <v>3</v>
       </c>
       <c r="C19" t="s">
-        <v>9</v>
+        <v>5</v>
       </c>
       <c r="D19" s="2">
-        <v>45078.963888888888</v>
+        <v>45078</v>
       </c>
       <c r="E19" s="2">
-        <v>45078.973611111112</v>
+        <v>45078.082638888889</v>
       </c>
     </row>
     <row r="20" spans="1:5" x14ac:dyDescent="0.2">
@@ -764,16 +759,16 @@
         <v>1</v>
       </c>
       <c r="B20">
-        <v>-1</v>
+        <v>3</v>
       </c>
       <c r="C20" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="D20" s="2">
-        <v>45078.999305555553</v>
+        <v>45078.083333333343</v>
       </c>
       <c r="E20" s="2">
-        <v>45078.999305555553</v>
+        <v>45078.149305555547</v>
       </c>
     </row>
     <row r="21" spans="1:5" x14ac:dyDescent="0.2">
@@ -784,13 +779,13 @@
         <v>3</v>
       </c>
       <c r="C21" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="D21" s="2">
-        <v>45078.083333333343</v>
+        <v>45078.15</v>
       </c>
       <c r="E21" s="2">
-        <v>45078.149305555547</v>
+        <v>45078.159722222219</v>
       </c>
     </row>
     <row r="22" spans="1:5" x14ac:dyDescent="0.2">
@@ -801,7 +796,7 @@
         <v>3</v>
       </c>
       <c r="C22" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="D22" s="2">
         <v>45078.160416666673</v>
@@ -815,16 +810,16 @@
         <v>1</v>
       </c>
       <c r="B23">
-        <v>3</v>
+        <v>15</v>
       </c>
       <c r="C23" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="D23" s="2">
-        <v>45078</v>
+        <v>45078.17083333333</v>
       </c>
       <c r="E23" s="2">
-        <v>45078.082638888889</v>
+        <v>45078.566666666673</v>
       </c>
     </row>
     <row r="24" spans="1:5" x14ac:dyDescent="0.2">
@@ -832,16 +827,16 @@
         <v>1</v>
       </c>
       <c r="B24">
-        <v>3</v>
+        <v>15</v>
       </c>
       <c r="C24" t="s">
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="D24" s="2">
-        <v>45078.15</v>
+        <v>45078.376388888893</v>
       </c>
       <c r="E24" s="2">
-        <v>45078.159722222219</v>
+        <v>45078.386111111111</v>
       </c>
     </row>
     <row r="25" spans="1:5" x14ac:dyDescent="0.2">
@@ -852,7 +847,7 @@
         <v>15</v>
       </c>
       <c r="C25" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="D25" s="2">
         <v>45078.386805555558</v>
@@ -866,16 +861,16 @@
         <v>1</v>
       </c>
       <c r="B26">
-        <v>15</v>
+        <v>51</v>
       </c>
       <c r="C26" t="s">
         <v>6</v>
       </c>
       <c r="D26" s="2">
-        <v>45078.17083333333</v>
+        <v>45078.574305555558</v>
       </c>
       <c r="E26" s="2">
-        <v>45078.566666666673</v>
+        <v>45078.651388888888</v>
       </c>
     </row>
     <row r="27" spans="1:5" x14ac:dyDescent="0.2">
@@ -883,16 +878,16 @@
         <v>1</v>
       </c>
       <c r="B27">
-        <v>15</v>
+        <v>51</v>
       </c>
       <c r="C27" t="s">
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="D27" s="2">
-        <v>45078.376388888893</v>
+        <v>45078.652083333327</v>
       </c>
       <c r="E27" s="2">
-        <v>45078.386111111111</v>
+        <v>45078.661805555559</v>
       </c>
     </row>
     <row r="28" spans="1:5" x14ac:dyDescent="0.2">
@@ -903,13 +898,13 @@
         <v>51</v>
       </c>
       <c r="C28" t="s">
-        <v>6</v>
+        <v>10</v>
       </c>
       <c r="D28" s="2">
-        <v>45078.574305555558</v>
+        <v>45078.662499999999</v>
       </c>
       <c r="E28" s="2">
-        <v>45078.651388888888</v>
+        <v>45078.672222222223</v>
       </c>
     </row>
     <row r="29" spans="1:5" x14ac:dyDescent="0.2">
@@ -917,16 +912,16 @@
         <v>1</v>
       </c>
       <c r="B29">
-        <v>51</v>
+        <v>59</v>
       </c>
       <c r="C29" t="s">
-        <v>11</v>
+        <v>6</v>
       </c>
       <c r="D29" s="2">
-        <v>45078.662499999999</v>
+        <v>45078.67291666667</v>
       </c>
       <c r="E29" s="2">
-        <v>45078.672222222223</v>
+        <v>45078.856249999997</v>
       </c>
     </row>
     <row r="30" spans="1:5" x14ac:dyDescent="0.2">
@@ -934,16 +929,16 @@
         <v>1</v>
       </c>
       <c r="B30">
-        <v>51</v>
+        <v>59</v>
       </c>
       <c r="C30" t="s">
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="D30" s="2">
-        <v>45078.652083333327</v>
+        <v>45078.856944444437</v>
       </c>
       <c r="E30" s="2">
-        <v>45078.661805555559</v>
+        <v>45078.866666666669</v>
       </c>
     </row>
     <row r="31" spans="1:5" x14ac:dyDescent="0.2">
@@ -954,7 +949,7 @@
         <v>59</v>
       </c>
       <c r="C31" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="D31" s="2">
         <v>45078.867361111108</v>
@@ -968,16 +963,16 @@
         <v>1</v>
       </c>
       <c r="B32">
-        <v>59</v>
+        <v>85</v>
       </c>
       <c r="C32" t="s">
         <v>6</v>
       </c>
       <c r="D32" s="2">
-        <v>45078.67291666667</v>
+        <v>45078.874305555553</v>
       </c>
       <c r="E32" s="2">
-        <v>45078.856249999997</v>
+        <v>45078.931944444441</v>
       </c>
     </row>
     <row r="33" spans="1:5" x14ac:dyDescent="0.2">
@@ -985,16 +980,16 @@
         <v>1</v>
       </c>
       <c r="B33">
-        <v>59</v>
+        <v>85</v>
       </c>
       <c r="C33" t="s">
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="D33" s="2">
-        <v>45078.856944444437</v>
+        <v>45078.932638888888</v>
       </c>
       <c r="E33" s="2">
-        <v>45078.866666666669</v>
+        <v>45078.942361111112</v>
       </c>
     </row>
     <row r="34" spans="1:5" x14ac:dyDescent="0.2">
@@ -1005,13 +1000,13 @@
         <v>85</v>
       </c>
       <c r="C34" t="s">
-        <v>6</v>
+        <v>10</v>
       </c>
       <c r="D34" s="2">
-        <v>45078.874305555553</v>
+        <v>45078.943055555559</v>
       </c>
       <c r="E34" s="2">
-        <v>45078.931944444441</v>
+        <v>45078.952777777777</v>
       </c>
     </row>
     <row r="35" spans="1:5" x14ac:dyDescent="0.2">
@@ -1019,16 +1014,16 @@
         <v>1</v>
       </c>
       <c r="B35">
-        <v>85</v>
+        <v>1272</v>
       </c>
       <c r="C35" t="s">
-        <v>11</v>
+        <v>6</v>
       </c>
       <c r="D35" s="2">
-        <v>45078.943055555559</v>
+        <v>45078.953472222223</v>
       </c>
       <c r="E35" s="2">
-        <v>45078.952777777777</v>
+        <v>45078.977777777778</v>
       </c>
     </row>
     <row r="36" spans="1:5" x14ac:dyDescent="0.2">
@@ -1036,16 +1031,16 @@
         <v>1</v>
       </c>
       <c r="B36">
-        <v>85</v>
+        <v>1272</v>
       </c>
       <c r="C36" t="s">
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="D36" s="2">
-        <v>45078.932638888888</v>
+        <v>45078.978472222218</v>
       </c>
       <c r="E36" s="2">
-        <v>45078.942361111112</v>
+        <v>45078.988194444442</v>
       </c>
     </row>
     <row r="37" spans="1:5" x14ac:dyDescent="0.2">
@@ -1056,47 +1051,47 @@
         <v>1272</v>
       </c>
       <c r="C37" t="s">
-        <v>6</v>
+        <v>10</v>
       </c>
       <c r="D37" s="2">
-        <v>45078.953472222223</v>
+        <v>45078.988888888889</v>
       </c>
       <c r="E37" s="2">
-        <v>45078.977777777778</v>
+        <v>45078.998611111107</v>
       </c>
     </row>
     <row r="38" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A38">
+        <v>2</v>
+      </c>
+      <c r="B38">
         <v>1</v>
       </c>
-      <c r="B38">
-        <v>1272</v>
-      </c>
       <c r="C38" t="s">
-        <v>11</v>
+        <v>5</v>
       </c>
       <c r="D38" s="2">
-        <v>45078.988888888889</v>
+        <v>45078</v>
       </c>
       <c r="E38" s="2">
-        <v>45078.998611111107</v>
+        <v>45078.082638888889</v>
       </c>
     </row>
     <row r="39" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A39">
+        <v>2</v>
+      </c>
+      <c r="B39">
         <v>1</v>
       </c>
-      <c r="B39">
-        <v>1272</v>
-      </c>
       <c r="C39" t="s">
-        <v>9</v>
+        <v>6</v>
       </c>
       <c r="D39" s="2">
-        <v>45078.978472222218</v>
+        <v>45078.083333333343</v>
       </c>
       <c r="E39" s="2">
-        <v>45078.988194444442</v>
+        <v>45078.125694444447</v>
       </c>
     </row>
     <row r="40" spans="1:5" x14ac:dyDescent="0.2">
@@ -1104,16 +1099,16 @@
         <v>2</v>
       </c>
       <c r="B40">
-        <v>-1</v>
+        <v>1</v>
       </c>
       <c r="C40" t="s">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="D40" s="2">
-        <v>45078.994444444441</v>
+        <v>45078.126388888893</v>
       </c>
       <c r="E40" s="2">
-        <v>45078.999305555553</v>
+        <v>45078.136111111111</v>
       </c>
     </row>
     <row r="41" spans="1:5" x14ac:dyDescent="0.2">
@@ -1124,13 +1119,13 @@
         <v>1</v>
       </c>
       <c r="C41" t="s">
-        <v>6</v>
+        <v>10</v>
       </c>
       <c r="D41" s="2">
-        <v>45078.083333333343</v>
+        <v>45078.136805555558</v>
       </c>
       <c r="E41" s="2">
-        <v>45078.125694444447</v>
+        <v>45078.146527777782</v>
       </c>
     </row>
     <row r="42" spans="1:5" x14ac:dyDescent="0.2">
@@ -1138,16 +1133,16 @@
         <v>2</v>
       </c>
       <c r="B42">
-        <v>1</v>
+        <v>87</v>
       </c>
       <c r="C42" t="s">
-        <v>11</v>
+        <v>6</v>
       </c>
       <c r="D42" s="2">
-        <v>45078.136805555558</v>
+        <v>45078.147222222222</v>
       </c>
       <c r="E42" s="2">
-        <v>45078.146527777782</v>
+        <v>45078.234027777777</v>
       </c>
     </row>
     <row r="43" spans="1:5" x14ac:dyDescent="0.2">
@@ -1155,16 +1150,16 @@
         <v>2</v>
       </c>
       <c r="B43">
-        <v>1</v>
+        <v>87</v>
       </c>
       <c r="C43" t="s">
         <v>7</v>
       </c>
       <c r="D43" s="2">
-        <v>45078</v>
+        <v>45078.234722222223</v>
       </c>
       <c r="E43" s="2">
-        <v>45078.082638888889</v>
+        <v>45078.244444444441</v>
       </c>
     </row>
     <row r="44" spans="1:5" x14ac:dyDescent="0.2">
@@ -1172,16 +1167,16 @@
         <v>2</v>
       </c>
       <c r="B44">
-        <v>1</v>
+        <v>87</v>
       </c>
       <c r="C44" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D44" s="2">
-        <v>45078.126388888893</v>
+        <v>45078.245138888888</v>
       </c>
       <c r="E44" s="2">
-        <v>45078.136111111111</v>
+        <v>45078.254861111112</v>
       </c>
     </row>
     <row r="45" spans="1:5" x14ac:dyDescent="0.2">
@@ -1189,16 +1184,16 @@
         <v>2</v>
       </c>
       <c r="B45">
-        <v>87</v>
+        <v>102</v>
       </c>
       <c r="C45" t="s">
         <v>6</v>
       </c>
       <c r="D45" s="2">
-        <v>45078.147222222222</v>
+        <v>45078.255555555559</v>
       </c>
       <c r="E45" s="2">
-        <v>45078.234027777777</v>
+        <v>45078.402777777781</v>
       </c>
     </row>
     <row r="46" spans="1:5" x14ac:dyDescent="0.2">
@@ -1206,16 +1201,16 @@
         <v>2</v>
       </c>
       <c r="B46">
-        <v>87</v>
+        <v>102</v>
       </c>
       <c r="C46" t="s">
-        <v>11</v>
+        <v>7</v>
       </c>
       <c r="D46" s="2">
-        <v>45078.245138888888</v>
+        <v>45078.40347222222</v>
       </c>
       <c r="E46" s="2">
-        <v>45078.254861111112</v>
+        <v>45078.413194444453</v>
       </c>
     </row>
     <row r="47" spans="1:5" x14ac:dyDescent="0.2">
@@ -1223,16 +1218,16 @@
         <v>2</v>
       </c>
       <c r="B47">
-        <v>87</v>
+        <v>102</v>
       </c>
       <c r="C47" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D47" s="2">
-        <v>45078.234722222223</v>
+        <v>45078.413888888892</v>
       </c>
       <c r="E47" s="2">
-        <v>45078.244444444441</v>
+        <v>45078.423611111109</v>
       </c>
     </row>
     <row r="48" spans="1:5" x14ac:dyDescent="0.2">
@@ -1240,16 +1235,16 @@
         <v>2</v>
       </c>
       <c r="B48">
-        <v>102</v>
+        <v>108</v>
       </c>
       <c r="C48" t="s">
         <v>6</v>
       </c>
       <c r="D48" s="2">
-        <v>45078.255555555559</v>
+        <v>45078.424305555563</v>
       </c>
       <c r="E48" s="2">
-        <v>45078.402777777781</v>
+        <v>45078.474305555559</v>
       </c>
     </row>
     <row r="49" spans="1:5" x14ac:dyDescent="0.2">
@@ -1257,16 +1252,16 @@
         <v>2</v>
       </c>
       <c r="B49">
-        <v>102</v>
+        <v>108</v>
       </c>
       <c r="C49" t="s">
-        <v>11</v>
+        <v>7</v>
       </c>
       <c r="D49" s="2">
-        <v>45078.413888888892</v>
+        <v>45078.474999999999</v>
       </c>
       <c r="E49" s="2">
-        <v>45078.423611111109</v>
+        <v>45078.484722222223</v>
       </c>
     </row>
     <row r="50" spans="1:5" x14ac:dyDescent="0.2">
@@ -1274,16 +1269,16 @@
         <v>2</v>
       </c>
       <c r="B50">
-        <v>102</v>
+        <v>108</v>
       </c>
       <c r="C50" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D50" s="2">
-        <v>45078.40347222222</v>
+        <v>45078.48541666667</v>
       </c>
       <c r="E50" s="2">
-        <v>45078.413194444453</v>
+        <v>45078.495138888888</v>
       </c>
     </row>
     <row r="51" spans="1:5" x14ac:dyDescent="0.2">
@@ -1291,16 +1286,16 @@
         <v>2</v>
       </c>
       <c r="B51">
-        <v>108</v>
+        <v>118</v>
       </c>
       <c r="C51" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="D51" s="2">
-        <v>45078.424305555563</v>
+        <v>45078.495833333327</v>
       </c>
       <c r="E51" s="2">
-        <v>45078.474305555559</v>
+        <v>45078.578472222223</v>
       </c>
     </row>
     <row r="52" spans="1:5" x14ac:dyDescent="0.2">
@@ -1308,16 +1303,16 @@
         <v>2</v>
       </c>
       <c r="B52">
-        <v>108</v>
+        <v>118</v>
       </c>
       <c r="C52" t="s">
-        <v>11</v>
+        <v>6</v>
       </c>
       <c r="D52" s="2">
-        <v>45078.48541666667</v>
+        <v>45078.57916666667</v>
       </c>
       <c r="E52" s="2">
-        <v>45078.495138888888</v>
+        <v>45078.663888888892</v>
       </c>
     </row>
     <row r="53" spans="1:5" x14ac:dyDescent="0.2">
@@ -1325,16 +1320,16 @@
         <v>2</v>
       </c>
       <c r="B53">
-        <v>108</v>
+        <v>118</v>
       </c>
       <c r="C53" t="s">
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="D53" s="2">
-        <v>45078.474999999999</v>
+        <v>45078.664583333331</v>
       </c>
       <c r="E53" s="2">
-        <v>45078.484722222223</v>
+        <v>45078.674305555563</v>
       </c>
     </row>
     <row r="54" spans="1:5" x14ac:dyDescent="0.2">
@@ -1345,13 +1340,13 @@
         <v>118</v>
       </c>
       <c r="C54" t="s">
-        <v>6</v>
+        <v>10</v>
       </c>
       <c r="D54" s="2">
-        <v>45078.57916666667</v>
+        <v>45078.675000000003</v>
       </c>
       <c r="E54" s="2">
-        <v>45078.663888888892</v>
+        <v>45078.68472222222</v>
       </c>
     </row>
     <row r="55" spans="1:5" x14ac:dyDescent="0.2">
@@ -1359,16 +1354,16 @@
         <v>2</v>
       </c>
       <c r="B55">
-        <v>118</v>
+        <v>146</v>
       </c>
       <c r="C55" t="s">
-        <v>11</v>
+        <v>5</v>
       </c>
       <c r="D55" s="2">
-        <v>45078.675000000003</v>
+        <v>45078.685416666667</v>
       </c>
       <c r="E55" s="2">
-        <v>45078.68472222222</v>
+        <v>45078.768055555563</v>
       </c>
     </row>
     <row r="56" spans="1:5" x14ac:dyDescent="0.2">
@@ -1376,16 +1371,16 @@
         <v>2</v>
       </c>
       <c r="B56">
-        <v>118</v>
+        <v>146</v>
       </c>
       <c r="C56" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="D56" s="2">
-        <v>45078.495833333327</v>
+        <v>45078.768750000003</v>
       </c>
       <c r="E56" s="2">
-        <v>45078.578472222223</v>
+        <v>45078.811111111107</v>
       </c>
     </row>
     <row r="57" spans="1:5" x14ac:dyDescent="0.2">
@@ -1393,16 +1388,16 @@
         <v>2</v>
       </c>
       <c r="B57">
-        <v>118</v>
+        <v>146</v>
       </c>
       <c r="C57" t="s">
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="D57" s="2">
-        <v>45078.664583333331</v>
+        <v>45078.811805555553</v>
       </c>
       <c r="E57" s="2">
-        <v>45078.674305555563</v>
+        <v>45078.821527777778</v>
       </c>
     </row>
     <row r="58" spans="1:5" x14ac:dyDescent="0.2">
@@ -1413,13 +1408,13 @@
         <v>146</v>
       </c>
       <c r="C58" t="s">
-        <v>6</v>
+        <v>10</v>
       </c>
       <c r="D58" s="2">
-        <v>45078.768750000003</v>
+        <v>45078.822222222218</v>
       </c>
       <c r="E58" s="2">
-        <v>45078.811111111107</v>
+        <v>45078.831944444442</v>
       </c>
     </row>
     <row r="59" spans="1:5" x14ac:dyDescent="0.2">
@@ -1427,16 +1422,16 @@
         <v>2</v>
       </c>
       <c r="B59">
-        <v>146</v>
+        <v>241</v>
       </c>
       <c r="C59" t="s">
-        <v>11</v>
+        <v>5</v>
       </c>
       <c r="D59" s="2">
-        <v>45078.822222222218</v>
+        <v>45078.832638888889</v>
       </c>
       <c r="E59" s="2">
-        <v>45078.831944444442</v>
+        <v>45078.915277777778</v>
       </c>
     </row>
     <row r="60" spans="1:5" x14ac:dyDescent="0.2">
@@ -1444,16 +1439,16 @@
         <v>2</v>
       </c>
       <c r="B60">
-        <v>146</v>
+        <v>241</v>
       </c>
       <c r="C60" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="D60" s="2">
-        <v>45078.685416666667</v>
+        <v>45078.915972222218</v>
       </c>
       <c r="E60" s="2">
-        <v>45078.768055555563</v>
+        <v>45078.972916666673</v>
       </c>
     </row>
     <row r="61" spans="1:5" x14ac:dyDescent="0.2">
@@ -1461,16 +1456,16 @@
         <v>2</v>
       </c>
       <c r="B61">
-        <v>146</v>
+        <v>241</v>
       </c>
       <c r="C61" t="s">
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="D61" s="2">
-        <v>45078.811805555553</v>
+        <v>45078.973611111112</v>
       </c>
       <c r="E61" s="2">
-        <v>45078.821527777778</v>
+        <v>45078.98333333333</v>
       </c>
     </row>
     <row r="62" spans="1:5" x14ac:dyDescent="0.2">
@@ -1481,64 +1476,64 @@
         <v>241</v>
       </c>
       <c r="C62" t="s">
-        <v>6</v>
+        <v>10</v>
       </c>
       <c r="D62" s="2">
-        <v>45078.915972222218</v>
+        <v>45078.984027777777</v>
       </c>
       <c r="E62" s="2">
-        <v>45078.972916666673</v>
+        <v>45078.993750000001</v>
       </c>
     </row>
     <row r="63" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A63">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="B63">
-        <v>241</v>
+        <v>61</v>
       </c>
       <c r="C63" t="s">
-        <v>11</v>
+        <v>6</v>
       </c>
       <c r="D63" s="2">
-        <v>45078.984027777777</v>
+        <v>45078</v>
       </c>
       <c r="E63" s="2">
-        <v>45078.993750000001</v>
+        <v>45078.200694444437</v>
       </c>
     </row>
     <row r="64" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A64">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="B64">
-        <v>241</v>
+        <v>61</v>
       </c>
       <c r="C64" t="s">
         <v>7</v>
       </c>
       <c r="D64" s="2">
-        <v>45078.832638888889</v>
+        <v>45078.097222222219</v>
       </c>
       <c r="E64" s="2">
-        <v>45078.915277777778</v>
+        <v>45078.106944444437</v>
       </c>
     </row>
     <row r="65" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A65">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="B65">
-        <v>241</v>
+        <v>61</v>
       </c>
       <c r="C65" t="s">
         <v>9</v>
       </c>
       <c r="D65" s="2">
-        <v>45078.973611111112</v>
+        <v>45078.107638888891</v>
       </c>
       <c r="E65" s="2">
-        <v>45078.98333333333</v>
+        <v>45078.211111111108</v>
       </c>
     </row>
     <row r="66" spans="1:5" x14ac:dyDescent="0.2">
@@ -1546,16 +1541,16 @@
         <v>3</v>
       </c>
       <c r="B66">
-        <v>-1</v>
+        <v>64</v>
       </c>
       <c r="C66" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="D66" s="2">
-        <v>45078.997916666667</v>
+        <v>45078.211805555547</v>
       </c>
       <c r="E66" s="2">
-        <v>45078.999305555553</v>
+        <v>45078.572916666657</v>
       </c>
     </row>
     <row r="67" spans="1:5" x14ac:dyDescent="0.2">
@@ -1563,16 +1558,16 @@
         <v>3</v>
       </c>
       <c r="B67">
-        <v>61</v>
+        <v>64</v>
       </c>
       <c r="C67" t="s">
-        <v>10</v>
+        <v>7</v>
       </c>
       <c r="D67" s="2">
-        <v>45078.107638888891</v>
+        <v>45078.375694444447</v>
       </c>
       <c r="E67" s="2">
-        <v>45078.211111111108</v>
+        <v>45078.385416666657</v>
       </c>
     </row>
     <row r="68" spans="1:5" x14ac:dyDescent="0.2">
@@ -1580,16 +1575,16 @@
         <v>3</v>
       </c>
       <c r="B68">
-        <v>61</v>
+        <v>64</v>
       </c>
       <c r="C68" t="s">
-        <v>6</v>
+        <v>9</v>
       </c>
       <c r="D68" s="2">
-        <v>45078</v>
+        <v>45078.386111111111</v>
       </c>
       <c r="E68" s="2">
-        <v>45078.200694444437</v>
+        <v>45078.579861111109</v>
       </c>
     </row>
     <row r="69" spans="1:5" x14ac:dyDescent="0.2">
@@ -1597,16 +1592,16 @@
         <v>3</v>
       </c>
       <c r="B69">
-        <v>61</v>
+        <v>144</v>
       </c>
       <c r="C69" t="s">
-        <v>9</v>
+        <v>6</v>
       </c>
       <c r="D69" s="2">
-        <v>45078.097222222219</v>
+        <v>45078.580555555563</v>
       </c>
       <c r="E69" s="2">
-        <v>45078.106944444437</v>
+        <v>45078.761805555558</v>
       </c>
     </row>
     <row r="70" spans="1:5" x14ac:dyDescent="0.2">
@@ -1614,16 +1609,16 @@
         <v>3</v>
       </c>
       <c r="B70">
-        <v>64</v>
+        <v>144</v>
       </c>
       <c r="C70" t="s">
-        <v>10</v>
+        <v>7</v>
       </c>
       <c r="D70" s="2">
-        <v>45078.386111111111</v>
+        <v>45078.762499999997</v>
       </c>
       <c r="E70" s="2">
-        <v>45078.579861111109</v>
+        <v>45078.772222222222</v>
       </c>
     </row>
     <row r="71" spans="1:5" x14ac:dyDescent="0.2">
@@ -1631,16 +1626,16 @@
         <v>3</v>
       </c>
       <c r="B71">
-        <v>64</v>
+        <v>144</v>
       </c>
       <c r="C71" t="s">
-        <v>6</v>
+        <v>9</v>
       </c>
       <c r="D71" s="2">
-        <v>45078.211805555547</v>
+        <v>45078.772916666669</v>
       </c>
       <c r="E71" s="2">
-        <v>45078.572916666657</v>
+        <v>45078.786111111112</v>
       </c>
     </row>
     <row r="72" spans="1:5" x14ac:dyDescent="0.2">
@@ -1648,16 +1643,16 @@
         <v>3</v>
       </c>
       <c r="B72">
-        <v>64</v>
+        <v>153</v>
       </c>
       <c r="C72" t="s">
-        <v>9</v>
+        <v>6</v>
       </c>
       <c r="D72" s="2">
-        <v>45078.375694444447</v>
+        <v>45078.786805555559</v>
       </c>
       <c r="E72" s="2">
-        <v>45078.385416666657</v>
+        <v>45078.927777777782</v>
       </c>
     </row>
     <row r="73" spans="1:5" x14ac:dyDescent="0.2">
@@ -1665,16 +1660,16 @@
         <v>3</v>
       </c>
       <c r="B73">
-        <v>144</v>
+        <v>153</v>
       </c>
       <c r="C73" t="s">
-        <v>10</v>
+        <v>7</v>
       </c>
       <c r="D73" s="2">
-        <v>45078.772916666669</v>
+        <v>45078.820833333331</v>
       </c>
       <c r="E73" s="2">
-        <v>45078.786111111112</v>
+        <v>45078.830555555563</v>
       </c>
     </row>
     <row r="74" spans="1:5" x14ac:dyDescent="0.2">
@@ -1682,16 +1677,16 @@
         <v>3</v>
       </c>
       <c r="B74">
-        <v>144</v>
+        <v>153</v>
       </c>
       <c r="C74" t="s">
-        <v>6</v>
+        <v>9</v>
       </c>
       <c r="D74" s="2">
-        <v>45078.580555555563</v>
+        <v>45078.831250000003</v>
       </c>
       <c r="E74" s="2">
-        <v>45078.761805555558</v>
+        <v>45078.938194444447</v>
       </c>
     </row>
     <row r="75" spans="1:5" x14ac:dyDescent="0.2">
@@ -1699,16 +1694,16 @@
         <v>3</v>
       </c>
       <c r="B75">
-        <v>144</v>
+        <v>226</v>
       </c>
       <c r="C75" t="s">
-        <v>9</v>
+        <v>6</v>
       </c>
       <c r="D75" s="2">
-        <v>45078.762499999997</v>
+        <v>45078.938888888893</v>
       </c>
       <c r="E75" s="2">
-        <v>45078.772222222222</v>
+        <v>45078.976388888892</v>
       </c>
     </row>
     <row r="76" spans="1:5" x14ac:dyDescent="0.2">
@@ -1716,16 +1711,16 @@
         <v>3</v>
       </c>
       <c r="B76">
-        <v>153</v>
+        <v>226</v>
       </c>
       <c r="C76" t="s">
-        <v>10</v>
+        <v>7</v>
       </c>
       <c r="D76" s="2">
-        <v>45078.831250000003</v>
+        <v>45078.977083333331</v>
       </c>
       <c r="E76" s="2">
-        <v>45078.938194444447</v>
+        <v>45078.986805555563</v>
       </c>
     </row>
     <row r="77" spans="1:5" x14ac:dyDescent="0.2">
@@ -1733,84 +1728,84 @@
         <v>3</v>
       </c>
       <c r="B77">
-        <v>153</v>
+        <v>226</v>
       </c>
       <c r="C77" t="s">
-        <v>6</v>
+        <v>9</v>
       </c>
       <c r="D77" s="2">
-        <v>45078.786805555559</v>
+        <v>45078.987500000003</v>
       </c>
       <c r="E77" s="2">
-        <v>45078.927777777782</v>
+        <v>45078.99722222222</v>
       </c>
     </row>
     <row r="78" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A78">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="B78">
-        <v>153</v>
+        <v>6</v>
       </c>
       <c r="C78" t="s">
-        <v>9</v>
+        <v>5</v>
       </c>
       <c r="D78" s="2">
-        <v>45078.820833333331</v>
+        <v>45078</v>
       </c>
       <c r="E78" s="2">
-        <v>45078.830555555563</v>
+        <v>45078.082638888889</v>
       </c>
     </row>
     <row r="79" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A79">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="B79">
-        <v>226</v>
+        <v>6</v>
       </c>
       <c r="C79" t="s">
-        <v>10</v>
+        <v>6</v>
       </c>
       <c r="D79" s="2">
-        <v>45078.987500000003</v>
+        <v>45078.083333333343</v>
       </c>
       <c r="E79" s="2">
-        <v>45078.99722222222</v>
+        <v>45078.131944444453</v>
       </c>
     </row>
     <row r="80" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A80">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="B80">
-        <v>226</v>
+        <v>6</v>
       </c>
       <c r="C80" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="D80" s="2">
-        <v>45078.938888888893</v>
+        <v>45078.132638888892</v>
       </c>
       <c r="E80" s="2">
-        <v>45078.976388888892</v>
+        <v>45078.142361111109</v>
       </c>
     </row>
     <row r="81" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A81">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="B81">
-        <v>226</v>
+        <v>6</v>
       </c>
       <c r="C81" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D81" s="2">
-        <v>45078.977083333331</v>
+        <v>45078.143055555563</v>
       </c>
       <c r="E81" s="2">
-        <v>45078.986805555563</v>
+        <v>45078.152777777781</v>
       </c>
     </row>
     <row r="82" spans="1:5" x14ac:dyDescent="0.2">
@@ -1818,16 +1813,16 @@
         <v>4</v>
       </c>
       <c r="B82">
-        <v>-1</v>
+        <v>9</v>
       </c>
       <c r="C82" t="s">
         <v>5</v>
       </c>
       <c r="D82" s="2">
-        <v>45078.993750000001</v>
+        <v>45078.15347222222</v>
       </c>
       <c r="E82" s="2">
-        <v>45078.999305555553</v>
+        <v>45078.236111111109</v>
       </c>
     </row>
     <row r="83" spans="1:5" x14ac:dyDescent="0.2">
@@ -1835,16 +1830,16 @@
         <v>4</v>
       </c>
       <c r="B83">
-        <v>6</v>
+        <v>9</v>
       </c>
       <c r="C83" t="s">
         <v>6</v>
       </c>
       <c r="D83" s="2">
-        <v>45078.083333333343</v>
+        <v>45078.236805555563</v>
       </c>
       <c r="E83" s="2">
-        <v>45078.131944444453</v>
+        <v>45078.38958333333</v>
       </c>
     </row>
     <row r="84" spans="1:5" x14ac:dyDescent="0.2">
@@ -1852,16 +1847,16 @@
         <v>4</v>
       </c>
       <c r="B84">
-        <v>6</v>
+        <v>9</v>
       </c>
       <c r="C84" t="s">
-        <v>11</v>
+        <v>7</v>
       </c>
       <c r="D84" s="2">
-        <v>45078.143055555563</v>
+        <v>45078.390277777777</v>
       </c>
       <c r="E84" s="2">
-        <v>45078.152777777781</v>
+        <v>45078.400000000001</v>
       </c>
     </row>
     <row r="85" spans="1:5" x14ac:dyDescent="0.2">
@@ -1869,16 +1864,16 @@
         <v>4</v>
       </c>
       <c r="B85">
-        <v>6</v>
+        <v>9</v>
       </c>
       <c r="C85" t="s">
-        <v>7</v>
+        <v>10</v>
       </c>
       <c r="D85" s="2">
-        <v>45078</v>
+        <v>45078.400694444441</v>
       </c>
       <c r="E85" s="2">
-        <v>45078.082638888889</v>
+        <v>45078.410416666673</v>
       </c>
     </row>
     <row r="86" spans="1:5" x14ac:dyDescent="0.2">
@@ -1886,16 +1881,16 @@
         <v>4</v>
       </c>
       <c r="B86">
-        <v>6</v>
+        <v>11</v>
       </c>
       <c r="C86" t="s">
-        <v>9</v>
+        <v>6</v>
       </c>
       <c r="D86" s="2">
-        <v>45078.132638888892</v>
+        <v>45078.411111111112</v>
       </c>
       <c r="E86" s="2">
-        <v>45078.142361111109</v>
+        <v>45078.59652777778</v>
       </c>
     </row>
     <row r="87" spans="1:5" x14ac:dyDescent="0.2">
@@ -1903,16 +1898,16 @@
         <v>4</v>
       </c>
       <c r="B87">
-        <v>9</v>
+        <v>11</v>
       </c>
       <c r="C87" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="D87" s="2">
-        <v>45078.236805555563</v>
+        <v>45078.597222222219</v>
       </c>
       <c r="E87" s="2">
-        <v>45078.38958333333</v>
+        <v>45078.606944444437</v>
       </c>
     </row>
     <row r="88" spans="1:5" x14ac:dyDescent="0.2">
@@ -1920,16 +1915,16 @@
         <v>4</v>
       </c>
       <c r="B88">
-        <v>9</v>
+        <v>11</v>
       </c>
       <c r="C88" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="D88" s="2">
-        <v>45078.400694444441</v>
+        <v>45078.607638888891</v>
       </c>
       <c r="E88" s="2">
-        <v>45078.410416666673</v>
+        <v>45078.617361111108</v>
       </c>
     </row>
     <row r="89" spans="1:5" x14ac:dyDescent="0.2">
@@ -1937,16 +1932,16 @@
         <v>4</v>
       </c>
       <c r="B89">
-        <v>9</v>
+        <v>40</v>
       </c>
       <c r="C89" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="D89" s="2">
-        <v>45078.15347222222</v>
+        <v>45078.618055555547</v>
       </c>
       <c r="E89" s="2">
-        <v>45078.236111111109</v>
+        <v>45078.824305555558</v>
       </c>
     </row>
     <row r="90" spans="1:5" x14ac:dyDescent="0.2">
@@ -1954,16 +1949,16 @@
         <v>4</v>
       </c>
       <c r="B90">
-        <v>9</v>
+        <v>40</v>
       </c>
       <c r="C90" t="s">
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="D90" s="2">
-        <v>45078.390277777777</v>
+        <v>45078.824999999997</v>
       </c>
       <c r="E90" s="2">
-        <v>45078.400000000001</v>
+        <v>45078.834722222222</v>
       </c>
     </row>
     <row r="91" spans="1:5" x14ac:dyDescent="0.2">
@@ -1971,16 +1966,16 @@
         <v>4</v>
       </c>
       <c r="B91">
-        <v>11</v>
+        <v>40</v>
       </c>
       <c r="C91" t="s">
-        <v>6</v>
+        <v>10</v>
       </c>
       <c r="D91" s="2">
-        <v>45078.411111111112</v>
+        <v>45078.835416666669</v>
       </c>
       <c r="E91" s="2">
-        <v>45078.59652777778</v>
+        <v>45078.845138888893</v>
       </c>
     </row>
     <row r="92" spans="1:5" x14ac:dyDescent="0.2">
@@ -1988,16 +1983,16 @@
         <v>4</v>
       </c>
       <c r="B92">
-        <v>11</v>
+        <v>112</v>
       </c>
       <c r="C92" t="s">
-        <v>11</v>
+        <v>6</v>
       </c>
       <c r="D92" s="2">
-        <v>45078.607638888891</v>
+        <v>45078.845833333333</v>
       </c>
       <c r="E92" s="2">
-        <v>45078.617361111108</v>
+        <v>45078.972222222219</v>
       </c>
     </row>
     <row r="93" spans="1:5" x14ac:dyDescent="0.2">
@@ -2005,16 +2000,16 @@
         <v>4</v>
       </c>
       <c r="B93">
-        <v>11</v>
+        <v>112</v>
       </c>
       <c r="C93" t="s">
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="D93" s="2">
-        <v>45078.597222222219</v>
+        <v>45078.972916666673</v>
       </c>
       <c r="E93" s="2">
-        <v>45078.606944444437</v>
+        <v>45078.982638888891</v>
       </c>
     </row>
     <row r="94" spans="1:5" x14ac:dyDescent="0.2">
@@ -2022,101 +2017,101 @@
         <v>4</v>
       </c>
       <c r="B94">
-        <v>40</v>
+        <v>112</v>
       </c>
       <c r="C94" t="s">
-        <v>6</v>
+        <v>10</v>
       </c>
       <c r="D94" s="2">
-        <v>45078.618055555547</v>
+        <v>45078.98333333333</v>
       </c>
       <c r="E94" s="2">
-        <v>45078.824305555558</v>
+        <v>45078.993055555547</v>
       </c>
     </row>
     <row r="95" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A95">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="B95">
-        <v>40</v>
+        <v>26</v>
       </c>
       <c r="C95" t="s">
-        <v>11</v>
+        <v>5</v>
       </c>
       <c r="D95" s="2">
-        <v>45078.835416666669</v>
+        <v>45078</v>
       </c>
       <c r="E95" s="2">
-        <v>45078.845138888893</v>
+        <v>45078.082638888889</v>
       </c>
     </row>
     <row r="96" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A96">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="B96">
-        <v>40</v>
+        <v>26</v>
       </c>
       <c r="C96" t="s">
-        <v>9</v>
+        <v>6</v>
       </c>
       <c r="D96" s="2">
-        <v>45078.824999999997</v>
+        <v>45078.083333333343</v>
       </c>
       <c r="E96" s="2">
-        <v>45078.834722222222</v>
+        <v>45078.28402777778</v>
       </c>
     </row>
     <row r="97" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A97">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="B97">
-        <v>112</v>
+        <v>26</v>
       </c>
       <c r="C97" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="D97" s="2">
-        <v>45078.845833333333</v>
+        <v>45078.177083333343</v>
       </c>
       <c r="E97" s="2">
-        <v>45078.972222222219</v>
+        <v>45078.186805555553</v>
       </c>
     </row>
     <row r="98" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A98">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="B98">
-        <v>112</v>
+        <v>26</v>
       </c>
       <c r="C98" t="s">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="D98" s="2">
-        <v>45078.98333333333</v>
+        <v>45078.1875</v>
       </c>
       <c r="E98" s="2">
-        <v>45078.993055555547</v>
+        <v>45078.29791666667</v>
       </c>
     </row>
     <row r="99" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A99">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="B99">
-        <v>112</v>
+        <v>168</v>
       </c>
       <c r="C99" t="s">
-        <v>9</v>
+        <v>6</v>
       </c>
       <c r="D99" s="2">
-        <v>45078.972916666673</v>
+        <v>45078.298611111109</v>
       </c>
       <c r="E99" s="2">
-        <v>45078.982638888891</v>
+        <v>45078.606249999997</v>
       </c>
     </row>
     <row r="100" spans="1:5" x14ac:dyDescent="0.2">
@@ -2124,16 +2119,16 @@
         <v>5</v>
       </c>
       <c r="B100">
-        <v>26</v>
+        <v>168</v>
       </c>
       <c r="C100" t="s">
-        <v>10</v>
+        <v>7</v>
       </c>
       <c r="D100" s="2">
-        <v>45078.1875</v>
+        <v>45078.50277777778</v>
       </c>
       <c r="E100" s="2">
-        <v>45078.29791666667</v>
+        <v>45078.512499999997</v>
       </c>
     </row>
     <row r="101" spans="1:5" x14ac:dyDescent="0.2">
@@ -2141,16 +2136,16 @@
         <v>5</v>
       </c>
       <c r="B101">
-        <v>26</v>
+        <v>168</v>
       </c>
       <c r="C101" t="s">
-        <v>6</v>
+        <v>9</v>
       </c>
       <c r="D101" s="2">
-        <v>45078.083333333343</v>
+        <v>45078.513194444437</v>
       </c>
       <c r="E101" s="2">
-        <v>45078.28402777778</v>
+        <v>45078.613194444442</v>
       </c>
     </row>
     <row r="102" spans="1:5" x14ac:dyDescent="0.2">
@@ -2158,16 +2153,16 @@
         <v>5</v>
       </c>
       <c r="B102">
-        <v>26</v>
+        <v>220</v>
       </c>
       <c r="C102" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="D102" s="2">
-        <v>45078</v>
+        <v>45078.613888888889</v>
       </c>
       <c r="E102" s="2">
-        <v>45078.082638888889</v>
+        <v>45078.826388888891</v>
       </c>
     </row>
     <row r="103" spans="1:5" x14ac:dyDescent="0.2">
@@ -2175,16 +2170,16 @@
         <v>5</v>
       </c>
       <c r="B103">
-        <v>26</v>
+        <v>220</v>
       </c>
       <c r="C103" t="s">
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="D103" s="2">
-        <v>45078.177083333343</v>
+        <v>45078.722916666673</v>
       </c>
       <c r="E103" s="2">
-        <v>45078.186805555553</v>
+        <v>45078.732638888891</v>
       </c>
     </row>
     <row r="104" spans="1:5" x14ac:dyDescent="0.2">
@@ -2192,16 +2187,16 @@
         <v>5</v>
       </c>
       <c r="B104">
-        <v>168</v>
+        <v>220</v>
       </c>
       <c r="C104" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="D104" s="2">
-        <v>45078.513194444437</v>
+        <v>45078.73333333333</v>
       </c>
       <c r="E104" s="2">
-        <v>45078.613194444442</v>
+        <v>45078.840277777781</v>
       </c>
     </row>
     <row r="105" spans="1:5" x14ac:dyDescent="0.2">
@@ -2209,16 +2204,16 @@
         <v>5</v>
       </c>
       <c r="B105">
-        <v>168</v>
+        <v>607</v>
       </c>
       <c r="C105" t="s">
         <v>6</v>
       </c>
       <c r="D105" s="2">
-        <v>45078.298611111109</v>
+        <v>45078.84097222222</v>
       </c>
       <c r="E105" s="2">
-        <v>45078.606249999997</v>
+        <v>45078.9</v>
       </c>
     </row>
     <row r="106" spans="1:5" x14ac:dyDescent="0.2">
@@ -2226,16 +2221,16 @@
         <v>5</v>
       </c>
       <c r="B106">
-        <v>168</v>
+        <v>607</v>
       </c>
       <c r="C106" t="s">
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="D106" s="2">
-        <v>45078.50277777778</v>
+        <v>45078.900694444441</v>
       </c>
       <c r="E106" s="2">
-        <v>45078.512499999997</v>
+        <v>45078.910416666673</v>
       </c>
     </row>
     <row r="107" spans="1:5" x14ac:dyDescent="0.2">
@@ -2243,16 +2238,16 @@
         <v>5</v>
       </c>
       <c r="B107">
-        <v>220</v>
+        <v>607</v>
       </c>
       <c r="C107" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="D107" s="2">
-        <v>45078.73333333333</v>
+        <v>45078.911111111112</v>
       </c>
       <c r="E107" s="2">
-        <v>45078.840277777781</v>
+        <v>45078.92083333333</v>
       </c>
     </row>
     <row r="108" spans="1:5" x14ac:dyDescent="0.2">
@@ -2260,16 +2255,16 @@
         <v>5</v>
       </c>
       <c r="B108">
-        <v>220</v>
+        <v>731</v>
       </c>
       <c r="C108" t="s">
         <v>6</v>
       </c>
       <c r="D108" s="2">
-        <v>45078.613888888889</v>
+        <v>45078.921527777777</v>
       </c>
       <c r="E108" s="2">
-        <v>45078.826388888891</v>
+        <v>45078.978472222218</v>
       </c>
     </row>
     <row r="109" spans="1:5" x14ac:dyDescent="0.2">
@@ -2277,16 +2272,16 @@
         <v>5</v>
       </c>
       <c r="B109">
-        <v>220</v>
+        <v>731</v>
       </c>
       <c r="C109" t="s">
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="D109" s="2">
-        <v>45078.722916666673</v>
+        <v>45078.979166666657</v>
       </c>
       <c r="E109" s="2">
-        <v>45078.732638888891</v>
+        <v>45078.988888888889</v>
       </c>
     </row>
     <row r="110" spans="1:5" x14ac:dyDescent="0.2">
@@ -2294,101 +2289,101 @@
         <v>5</v>
       </c>
       <c r="B110">
-        <v>607</v>
+        <v>731</v>
       </c>
       <c r="C110" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="D110" s="2">
-        <v>45078.911111111112</v>
+        <v>45078.989583333343</v>
       </c>
       <c r="E110" s="2">
-        <v>45078.92083333333</v>
+        <v>45078.999305555553</v>
       </c>
     </row>
     <row r="111" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A111">
+        <v>6</v>
+      </c>
+      <c r="B111">
+        <v>14</v>
+      </c>
+      <c r="C111" t="s">
         <v>5</v>
       </c>
-      <c r="B111">
-        <v>607</v>
-      </c>
-      <c r="C111" t="s">
-        <v>6</v>
-      </c>
       <c r="D111" s="2">
-        <v>45078.84097222222</v>
+        <v>45078</v>
       </c>
       <c r="E111" s="2">
-        <v>45078.9</v>
+        <v>45078.082638888889</v>
       </c>
     </row>
     <row r="112" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A112">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="B112">
-        <v>607</v>
+        <v>14</v>
       </c>
       <c r="C112" t="s">
-        <v>9</v>
+        <v>6</v>
       </c>
       <c r="D112" s="2">
-        <v>45078.900694444441</v>
+        <v>45078.083333333343</v>
       </c>
       <c r="E112" s="2">
-        <v>45078.910416666673</v>
+        <v>45078.290277777778</v>
       </c>
     </row>
     <row r="113" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A113">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="B113">
-        <v>731</v>
+        <v>14</v>
       </c>
       <c r="C113" t="s">
-        <v>10</v>
+        <v>7</v>
       </c>
       <c r="D113" s="2">
-        <v>45078.989583333343</v>
+        <v>45078.290972222218</v>
       </c>
       <c r="E113" s="2">
-        <v>45078.999305555553</v>
+        <v>45078.300694444442</v>
       </c>
     </row>
     <row r="114" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A114">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="B114">
-        <v>731</v>
+        <v>14</v>
       </c>
       <c r="C114" t="s">
-        <v>6</v>
+        <v>10</v>
       </c>
       <c r="D114" s="2">
-        <v>45078.921527777777</v>
+        <v>45078.301388888889</v>
       </c>
       <c r="E114" s="2">
-        <v>45078.978472222218</v>
+        <v>45078.311111111107</v>
       </c>
     </row>
     <row r="115" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A115">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="B115">
-        <v>731</v>
+        <v>28</v>
       </c>
       <c r="C115" t="s">
-        <v>9</v>
+        <v>6</v>
       </c>
       <c r="D115" s="2">
-        <v>45078.979166666657</v>
+        <v>45078.311805555553</v>
       </c>
       <c r="E115" s="2">
-        <v>45078.988888888889</v>
+        <v>45078.37777777778</v>
       </c>
     </row>
     <row r="116" spans="1:5" x14ac:dyDescent="0.2">
@@ -2396,16 +2391,16 @@
         <v>6</v>
       </c>
       <c r="B116">
-        <v>-1</v>
+        <v>28</v>
       </c>
       <c r="C116" t="s">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="D116" s="2">
-        <v>45078.98333333333</v>
+        <v>45078.378472222219</v>
       </c>
       <c r="E116" s="2">
-        <v>45078.999305555553</v>
+        <v>45078.388194444437</v>
       </c>
     </row>
     <row r="117" spans="1:5" x14ac:dyDescent="0.2">
@@ -2413,16 +2408,16 @@
         <v>6</v>
       </c>
       <c r="B117">
-        <v>14</v>
+        <v>28</v>
       </c>
       <c r="C117" t="s">
-        <v>6</v>
+        <v>10</v>
       </c>
       <c r="D117" s="2">
-        <v>45078.083333333343</v>
+        <v>45078.388888888891</v>
       </c>
       <c r="E117" s="2">
-        <v>45078.290277777778</v>
+        <v>45078.398611111108</v>
       </c>
     </row>
     <row r="118" spans="1:5" x14ac:dyDescent="0.2">
@@ -2430,16 +2425,16 @@
         <v>6</v>
       </c>
       <c r="B118">
-        <v>14</v>
+        <v>72</v>
       </c>
       <c r="C118" t="s">
-        <v>11</v>
+        <v>6</v>
       </c>
       <c r="D118" s="2">
-        <v>45078.301388888889</v>
+        <v>45078.399305555547</v>
       </c>
       <c r="E118" s="2">
-        <v>45078.311111111107</v>
+        <v>45078.48541666667</v>
       </c>
     </row>
     <row r="119" spans="1:5" x14ac:dyDescent="0.2">
@@ -2447,16 +2442,16 @@
         <v>6</v>
       </c>
       <c r="B119">
-        <v>14</v>
+        <v>72</v>
       </c>
       <c r="C119" t="s">
         <v>7</v>
       </c>
       <c r="D119" s="2">
-        <v>45078</v>
+        <v>45078.486111111109</v>
       </c>
       <c r="E119" s="2">
-        <v>45078.082638888889</v>
+        <v>45078.495833333327</v>
       </c>
     </row>
     <row r="120" spans="1:5" x14ac:dyDescent="0.2">
@@ -2464,16 +2459,16 @@
         <v>6</v>
       </c>
       <c r="B120">
-        <v>14</v>
+        <v>72</v>
       </c>
       <c r="C120" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D120" s="2">
-        <v>45078.290972222218</v>
+        <v>45078.496527777781</v>
       </c>
       <c r="E120" s="2">
-        <v>45078.300694444442</v>
+        <v>45078.506249999999</v>
       </c>
     </row>
     <row r="121" spans="1:5" x14ac:dyDescent="0.2">
@@ -2481,16 +2476,16 @@
         <v>6</v>
       </c>
       <c r="B121">
-        <v>28</v>
+        <v>89</v>
       </c>
       <c r="C121" t="s">
         <v>6</v>
       </c>
       <c r="D121" s="2">
-        <v>45078.311805555553</v>
+        <v>45078.506944444453</v>
       </c>
       <c r="E121" s="2">
-        <v>45078.37777777778</v>
+        <v>45078.618750000001</v>
       </c>
     </row>
     <row r="122" spans="1:5" x14ac:dyDescent="0.2">
@@ -2498,16 +2493,16 @@
         <v>6</v>
       </c>
       <c r="B122">
-        <v>28</v>
+        <v>89</v>
       </c>
       <c r="C122" t="s">
-        <v>11</v>
+        <v>7</v>
       </c>
       <c r="D122" s="2">
-        <v>45078.388888888891</v>
+        <v>45078.619444444441</v>
       </c>
       <c r="E122" s="2">
-        <v>45078.398611111108</v>
+        <v>45078.629166666673</v>
       </c>
     </row>
     <row r="123" spans="1:5" x14ac:dyDescent="0.2">
@@ -2515,16 +2510,16 @@
         <v>6</v>
       </c>
       <c r="B123">
-        <v>28</v>
+        <v>89</v>
       </c>
       <c r="C123" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D123" s="2">
-        <v>45078.378472222219</v>
+        <v>45078.629861111112</v>
       </c>
       <c r="E123" s="2">
-        <v>45078.388194444437</v>
+        <v>45078.63958333333</v>
       </c>
     </row>
     <row r="124" spans="1:5" x14ac:dyDescent="0.2">
@@ -2532,16 +2527,16 @@
         <v>6</v>
       </c>
       <c r="B124">
-        <v>72</v>
+        <v>91</v>
       </c>
       <c r="C124" t="s">
         <v>6</v>
       </c>
       <c r="D124" s="2">
-        <v>45078.399305555547</v>
+        <v>45078.640277777777</v>
       </c>
       <c r="E124" s="2">
-        <v>45078.48541666667</v>
+        <v>45078.72152777778</v>
       </c>
     </row>
     <row r="125" spans="1:5" x14ac:dyDescent="0.2">
@@ -2549,16 +2544,16 @@
         <v>6</v>
       </c>
       <c r="B125">
-        <v>72</v>
+        <v>91</v>
       </c>
       <c r="C125" t="s">
-        <v>11</v>
+        <v>7</v>
       </c>
       <c r="D125" s="2">
-        <v>45078.496527777781</v>
+        <v>45078.722222222219</v>
       </c>
       <c r="E125" s="2">
-        <v>45078.506249999999</v>
+        <v>45078.731944444437</v>
       </c>
     </row>
     <row r="126" spans="1:5" x14ac:dyDescent="0.2">
@@ -2566,16 +2561,16 @@
         <v>6</v>
       </c>
       <c r="B126">
-        <v>72</v>
+        <v>91</v>
       </c>
       <c r="C126" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D126" s="2">
-        <v>45078.486111111109</v>
+        <v>45078.732638888891</v>
       </c>
       <c r="E126" s="2">
-        <v>45078.495833333327</v>
+        <v>45078.742361111108</v>
       </c>
     </row>
     <row r="127" spans="1:5" x14ac:dyDescent="0.2">
@@ -2583,16 +2578,16 @@
         <v>6</v>
       </c>
       <c r="B127">
-        <v>89</v>
+        <v>160</v>
       </c>
       <c r="C127" t="s">
         <v>6</v>
       </c>
       <c r="D127" s="2">
-        <v>45078.506944444453</v>
+        <v>45078.743055555547</v>
       </c>
       <c r="E127" s="2">
-        <v>45078.618750000001</v>
+        <v>45078.884722222218</v>
       </c>
     </row>
     <row r="128" spans="1:5" x14ac:dyDescent="0.2">
@@ -2600,16 +2595,16 @@
         <v>6</v>
       </c>
       <c r="B128">
-        <v>89</v>
+        <v>160</v>
       </c>
       <c r="C128" t="s">
-        <v>11</v>
+        <v>7</v>
       </c>
       <c r="D128" s="2">
-        <v>45078.629861111112</v>
+        <v>45078.885416666657</v>
       </c>
       <c r="E128" s="2">
-        <v>45078.63958333333</v>
+        <v>45078.895138888889</v>
       </c>
     </row>
     <row r="129" spans="1:5" x14ac:dyDescent="0.2">
@@ -2617,16 +2612,16 @@
         <v>6</v>
       </c>
       <c r="B129">
-        <v>89</v>
+        <v>160</v>
       </c>
       <c r="C129" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D129" s="2">
-        <v>45078.619444444441</v>
+        <v>45078.895833333343</v>
       </c>
       <c r="E129" s="2">
-        <v>45078.629166666673</v>
+        <v>45078.905555555553</v>
       </c>
     </row>
     <row r="130" spans="1:5" x14ac:dyDescent="0.2">
@@ -2634,16 +2629,16 @@
         <v>6</v>
       </c>
       <c r="B130">
-        <v>91</v>
+        <v>266</v>
       </c>
       <c r="C130" t="s">
         <v>6</v>
       </c>
       <c r="D130" s="2">
-        <v>45078.640277777777</v>
+        <v>45078.90625</v>
       </c>
       <c r="E130" s="2">
-        <v>45078.72152777778</v>
+        <v>45078.961805555547</v>
       </c>
     </row>
     <row r="131" spans="1:5" x14ac:dyDescent="0.2">
@@ -2651,16 +2646,16 @@
         <v>6</v>
       </c>
       <c r="B131">
-        <v>91</v>
+        <v>266</v>
       </c>
       <c r="C131" t="s">
-        <v>11</v>
+        <v>7</v>
       </c>
       <c r="D131" s="2">
-        <v>45078.732638888891</v>
+        <v>45078.962500000001</v>
       </c>
       <c r="E131" s="2">
-        <v>45078.742361111108</v>
+        <v>45078.972222222219</v>
       </c>
     </row>
     <row r="132" spans="1:5" x14ac:dyDescent="0.2">
@@ -2668,118 +2663,16 @@
         <v>6</v>
       </c>
       <c r="B132">
-        <v>91</v>
+        <v>266</v>
       </c>
       <c r="C132" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D132" s="2">
-        <v>45078.722222222219</v>
+        <v>45078.972916666673</v>
       </c>
       <c r="E132" s="2">
-        <v>45078.731944444437</v>
-      </c>
-    </row>
-    <row r="133" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A133">
-        <v>6</v>
-      </c>
-      <c r="B133">
-        <v>160</v>
-      </c>
-      <c r="C133" t="s">
-        <v>6</v>
-      </c>
-      <c r="D133" s="2">
-        <v>45078.743055555547</v>
-      </c>
-      <c r="E133" s="2">
-        <v>45078.884722222218</v>
-      </c>
-    </row>
-    <row r="134" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A134">
-        <v>6</v>
-      </c>
-      <c r="B134">
-        <v>160</v>
-      </c>
-      <c r="C134" t="s">
-        <v>11</v>
-      </c>
-      <c r="D134" s="2">
-        <v>45078.895833333343</v>
-      </c>
-      <c r="E134" s="2">
-        <v>45078.905555555553</v>
-      </c>
-    </row>
-    <row r="135" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A135">
-        <v>6</v>
-      </c>
-      <c r="B135">
-        <v>160</v>
-      </c>
-      <c r="C135" t="s">
-        <v>9</v>
-      </c>
-      <c r="D135" s="2">
-        <v>45078.885416666657</v>
-      </c>
-      <c r="E135" s="2">
-        <v>45078.895138888889</v>
-      </c>
-    </row>
-    <row r="136" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A136">
-        <v>6</v>
-      </c>
-      <c r="B136">
-        <v>266</v>
-      </c>
-      <c r="C136" t="s">
-        <v>6</v>
-      </c>
-      <c r="D136" s="2">
-        <v>45078.90625</v>
-      </c>
-      <c r="E136" s="2">
-        <v>45078.961805555547</v>
-      </c>
-    </row>
-    <row r="137" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A137">
-        <v>6</v>
-      </c>
-      <c r="B137">
-        <v>266</v>
-      </c>
-      <c r="C137" t="s">
-        <v>11</v>
-      </c>
-      <c r="D137" s="2">
-        <v>45078.972916666673</v>
-      </c>
-      <c r="E137" s="2">
         <v>45078.982638888891</v>
-      </c>
-    </row>
-    <row r="138" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A138">
-        <v>6</v>
-      </c>
-      <c r="B138">
-        <v>266</v>
-      </c>
-      <c r="C138" t="s">
-        <v>9</v>
-      </c>
-      <c r="D138" s="2">
-        <v>45078.962500000001</v>
-      </c>
-      <c r="E138" s="2">
-        <v>45078.972222222219</v>
       </c>
     </row>
   </sheetData>

--- a/docs/report/report.xlsx
+++ b/docs/report/report.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/nomed/Downloads/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{02185DF7-E04F-9249-A52B-7FE8BA87CB34}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3C5C862F-5977-F143-BF63-12336F6B4765}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="500" windowWidth="33600" windowHeight="19320" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="136" uniqueCount="11">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="268" uniqueCount="59">
   <si>
     <t>id_oven_</t>
   </si>
@@ -37,22 +37,166 @@
     <t>dt_end</t>
   </si>
   <si>
+    <t>duration_</t>
+  </si>
+  <si>
     <t>preparing</t>
   </si>
   <si>
+    <t>02:00:00</t>
+  </si>
+  <si>
     <t>nagrev</t>
   </si>
   <si>
+    <t>04:05:00</t>
+  </si>
+  <si>
     <t>wait_time_to_change</t>
   </si>
   <si>
+    <t>00:15:00</t>
+  </si>
+  <si>
     <t>prokat</t>
   </si>
   <si>
+    <t>01:16:00</t>
+  </si>
+  <si>
     <t>kovka</t>
   </si>
   <si>
+    <t>03:05:00</t>
+  </si>
+  <si>
+    <t>08:17:00</t>
+  </si>
+  <si>
+    <t>04:45:00</t>
+  </si>
+  <si>
+    <t>00:45:00</t>
+  </si>
+  <si>
+    <t>01:36:00</t>
+  </si>
+  <si>
     <t>otzhig</t>
+  </si>
+  <si>
+    <t>09:31:00</t>
+  </si>
+  <si>
+    <t>04:30:00</t>
+  </si>
+  <si>
+    <t>01:52:00</t>
+  </si>
+  <si>
+    <t>04:25:00</t>
+  </si>
+  <si>
+    <t>00:10:00</t>
+  </si>
+  <si>
+    <t>01:24:00</t>
+  </si>
+  <si>
+    <t>00:36:00</t>
+  </si>
+  <si>
+    <t>01:02:00</t>
+  </si>
+  <si>
+    <t>02:06:00</t>
+  </si>
+  <si>
+    <t>03:33:00</t>
+  </si>
+  <si>
+    <t>01:13:00</t>
+  </si>
+  <si>
+    <t>02:03:00</t>
+  </si>
+  <si>
+    <t>01:23:00</t>
+  </si>
+  <si>
+    <t>04:50:00</t>
+  </si>
+  <si>
+    <t>02:30:00</t>
+  </si>
+  <si>
+    <t>08:41:00</t>
+  </si>
+  <si>
+    <t>04:40:00</t>
+  </si>
+  <si>
+    <t>04:22:00</t>
+  </si>
+  <si>
+    <t>00:20:00</t>
+  </si>
+  <si>
+    <t>03:24:00</t>
+  </si>
+  <si>
+    <t>02:35:00</t>
+  </si>
+  <si>
+    <t>00:55:00</t>
+  </si>
+  <si>
+    <t>01:11:00</t>
+  </si>
+  <si>
+    <t>03:41:00</t>
+  </si>
+  <si>
+    <t>04:28:00</t>
+  </si>
+  <si>
+    <t>04:58:00</t>
+  </si>
+  <si>
+    <t>03:03:00</t>
+  </si>
+  <si>
+    <t>02:40:00</t>
+  </si>
+  <si>
+    <t>07:24:00</t>
+  </si>
+  <si>
+    <t>02:25:00</t>
+  </si>
+  <si>
+    <t>05:07:00</t>
+  </si>
+  <si>
+    <t>01:26:00</t>
+  </si>
+  <si>
+    <t>04:59:00</t>
+  </si>
+  <si>
+    <t>02:05:00</t>
+  </si>
+  <si>
+    <t>02:42:00</t>
+  </si>
+  <si>
+    <t>01:58:00</t>
+  </si>
+  <si>
+    <t>03:25:00</t>
+  </si>
+  <si>
+    <t>01:21:00</t>
   </si>
 </sst>
 </file>
@@ -74,7 +218,6 @@
       <b/>
       <sz val="11"/>
       <name val="Calibri"/>
-      <family val="2"/>
     </font>
   </fonts>
   <fills count="2">
@@ -420,10 +563,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:E132"/>
+  <dimension ref="A1:F132"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E10" sqref="E10"/>
+      <selection activeCell="G26" sqref="G26"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
@@ -431,7 +574,7 @@
     <col min="4" max="5" width="17.6640625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -447,8 +590,11 @@
       <c r="E1" s="1" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="2" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="F1" s="1" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="2" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A2">
         <v>0</v>
       </c>
@@ -456,7 +602,7 @@
         <v>0</v>
       </c>
       <c r="C2" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="D2" s="2">
         <v>45078</v>
@@ -464,8 +610,11 @@
       <c r="E2" s="2">
         <v>45078.082638888889</v>
       </c>
-    </row>
-    <row r="3" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="F2" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="3" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A3">
         <v>0</v>
       </c>
@@ -473,7 +622,7 @@
         <v>0</v>
       </c>
       <c r="C3" t="s">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="D3" s="2">
         <v>45078.083333333343</v>
@@ -481,8 +630,11 @@
       <c r="E3" s="2">
         <v>45078.25277777778</v>
       </c>
-    </row>
-    <row r="4" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="F3" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="4" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A4">
         <v>0</v>
       </c>
@@ -490,7 +642,7 @@
         <v>0</v>
       </c>
       <c r="C4" t="s">
-        <v>7</v>
+        <v>10</v>
       </c>
       <c r="D4" s="2">
         <v>45078.253472222219</v>
@@ -498,8 +650,11 @@
       <c r="E4" s="2">
         <v>45078.263194444437</v>
       </c>
-    </row>
-    <row r="5" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="F4" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="5" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A5">
         <v>0</v>
       </c>
@@ -507,7 +662,7 @@
         <v>0</v>
       </c>
       <c r="C5" t="s">
-        <v>8</v>
+        <v>12</v>
       </c>
       <c r="D5" s="2">
         <v>45078.263888888891</v>
@@ -515,8 +670,11 @@
       <c r="E5" s="2">
         <v>45078.273611111108</v>
       </c>
-    </row>
-    <row r="6" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="F5" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="6" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A6">
         <v>0</v>
       </c>
@@ -524,7 +682,7 @@
         <v>2</v>
       </c>
       <c r="C6" t="s">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="D6" s="2">
         <v>45078.274305555547</v>
@@ -532,8 +690,11 @@
       <c r="E6" s="2">
         <v>45078.326388888891</v>
       </c>
-    </row>
-    <row r="7" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="F6" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="7" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A7">
         <v>0</v>
       </c>
@@ -541,7 +702,7 @@
         <v>2</v>
       </c>
       <c r="C7" t="s">
-        <v>7</v>
+        <v>10</v>
       </c>
       <c r="D7" s="2">
         <v>45078.32708333333</v>
@@ -549,8 +710,11 @@
       <c r="E7" s="2">
         <v>45078.336805555547</v>
       </c>
-    </row>
-    <row r="8" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="F7" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="8" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A8">
         <v>0</v>
       </c>
@@ -558,7 +722,7 @@
         <v>2</v>
       </c>
       <c r="C8" t="s">
-        <v>9</v>
+        <v>14</v>
       </c>
       <c r="D8" s="2">
         <v>45078.337500000001</v>
@@ -566,8 +730,11 @@
       <c r="E8" s="2">
         <v>45078.347222222219</v>
       </c>
-    </row>
-    <row r="9" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="F8" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="9" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A9">
         <v>0</v>
       </c>
@@ -575,7 +742,7 @@
         <v>17</v>
       </c>
       <c r="C9" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="D9" s="2">
         <v>45078.347916666673</v>
@@ -583,8 +750,11 @@
       <c r="E9" s="2">
         <v>45078.430555555547</v>
       </c>
-    </row>
-    <row r="10" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="F9" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="10" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A10">
         <v>0</v>
       </c>
@@ -592,7 +762,7 @@
         <v>17</v>
       </c>
       <c r="C10" t="s">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="D10" s="2">
         <v>45078.431250000001</v>
@@ -600,8 +770,11 @@
       <c r="E10" s="2">
         <v>45078.559027777781</v>
       </c>
-    </row>
-    <row r="11" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="F10" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="11" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A11">
         <v>0</v>
       </c>
@@ -609,7 +782,7 @@
         <v>17</v>
       </c>
       <c r="C11" t="s">
-        <v>7</v>
+        <v>10</v>
       </c>
       <c r="D11" s="2">
         <v>45078.55972222222</v>
@@ -617,8 +790,11 @@
       <c r="E11" s="2">
         <v>45078.569444444453</v>
       </c>
-    </row>
-    <row r="12" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="F11" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="12" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A12">
         <v>0</v>
       </c>
@@ -626,7 +802,7 @@
         <v>17</v>
       </c>
       <c r="C12" t="s">
-        <v>8</v>
+        <v>12</v>
       </c>
       <c r="D12" s="2">
         <v>45078.570138888892</v>
@@ -634,8 +810,11 @@
       <c r="E12" s="2">
         <v>45078.579861111109</v>
       </c>
-    </row>
-    <row r="13" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="F12" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="13" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A13">
         <v>0</v>
       </c>
@@ -643,7 +822,7 @@
         <v>29</v>
       </c>
       <c r="C13" t="s">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="D13" s="2">
         <v>45078.580555555563</v>
@@ -651,8 +830,11 @@
       <c r="E13" s="2">
         <v>45078.925000000003</v>
       </c>
-    </row>
-    <row r="14" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="F13" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="14" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A14">
         <v>0</v>
       </c>
@@ -660,7 +842,7 @@
         <v>29</v>
       </c>
       <c r="C14" t="s">
-        <v>7</v>
+        <v>10</v>
       </c>
       <c r="D14" s="2">
         <v>45078.724305555559</v>
@@ -668,8 +850,11 @@
       <c r="E14" s="2">
         <v>45078.734027777777</v>
       </c>
-    </row>
-    <row r="15" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="F14" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="15" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A15">
         <v>0</v>
       </c>
@@ -677,7 +862,7 @@
         <v>29</v>
       </c>
       <c r="C15" t="s">
-        <v>9</v>
+        <v>14</v>
       </c>
       <c r="D15" s="2">
         <v>45078.734722222223</v>
@@ -685,8 +870,11 @@
       <c r="E15" s="2">
         <v>45078.931944444441</v>
       </c>
-    </row>
-    <row r="16" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="F15" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="16" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A16">
         <v>0</v>
       </c>
@@ -694,7 +882,7 @@
         <v>30</v>
       </c>
       <c r="C16" t="s">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="D16" s="2">
         <v>45078.932638888888</v>
@@ -702,8 +890,11 @@
       <c r="E16" s="2">
         <v>45078.963194444441</v>
       </c>
-    </row>
-    <row r="17" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="F16" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="17" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A17">
         <v>0</v>
       </c>
@@ -711,7 +902,7 @@
         <v>30</v>
       </c>
       <c r="C17" t="s">
-        <v>7</v>
+        <v>10</v>
       </c>
       <c r="D17" s="2">
         <v>45078.963888888888</v>
@@ -719,8 +910,11 @@
       <c r="E17" s="2">
         <v>45078.973611111112</v>
       </c>
-    </row>
-    <row r="18" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="F17" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="18" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A18">
         <v>0</v>
       </c>
@@ -728,7 +922,7 @@
         <v>30</v>
       </c>
       <c r="C18" t="s">
-        <v>8</v>
+        <v>12</v>
       </c>
       <c r="D18" s="2">
         <v>45078.974305555559</v>
@@ -736,8 +930,11 @@
       <c r="E18" s="2">
         <v>45078.984027777777</v>
       </c>
-    </row>
-    <row r="19" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="F18" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="19" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A19">
         <v>1</v>
       </c>
@@ -745,7 +942,7 @@
         <v>3</v>
       </c>
       <c r="C19" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="D19" s="2">
         <v>45078</v>
@@ -753,8 +950,11 @@
       <c r="E19" s="2">
         <v>45078.082638888889</v>
       </c>
-    </row>
-    <row r="20" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="F19" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="20" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A20">
         <v>1</v>
       </c>
@@ -762,7 +962,7 @@
         <v>3</v>
       </c>
       <c r="C20" t="s">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="D20" s="2">
         <v>45078.083333333343</v>
@@ -770,8 +970,11 @@
       <c r="E20" s="2">
         <v>45078.149305555547</v>
       </c>
-    </row>
-    <row r="21" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="F20" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="21" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A21">
         <v>1</v>
       </c>
@@ -779,7 +982,7 @@
         <v>3</v>
       </c>
       <c r="C21" t="s">
-        <v>7</v>
+        <v>10</v>
       </c>
       <c r="D21" s="2">
         <v>45078.15</v>
@@ -787,8 +990,11 @@
       <c r="E21" s="2">
         <v>45078.159722222219</v>
       </c>
-    </row>
-    <row r="22" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="F21" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="22" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A22">
         <v>1</v>
       </c>
@@ -796,7 +1002,7 @@
         <v>3</v>
       </c>
       <c r="C22" t="s">
-        <v>10</v>
+        <v>20</v>
       </c>
       <c r="D22" s="2">
         <v>45078.160416666673</v>
@@ -804,8 +1010,11 @@
       <c r="E22" s="2">
         <v>45078.170138888891</v>
       </c>
-    </row>
-    <row r="23" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="F22" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="23" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A23">
         <v>1</v>
       </c>
@@ -813,7 +1022,7 @@
         <v>15</v>
       </c>
       <c r="C23" t="s">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="D23" s="2">
         <v>45078.17083333333</v>
@@ -821,8 +1030,11 @@
       <c r="E23" s="2">
         <v>45078.566666666673</v>
       </c>
-    </row>
-    <row r="24" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="F23" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="24" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A24">
         <v>1</v>
       </c>
@@ -830,7 +1042,7 @@
         <v>15</v>
       </c>
       <c r="C24" t="s">
-        <v>7</v>
+        <v>10</v>
       </c>
       <c r="D24" s="2">
         <v>45078.376388888893</v>
@@ -838,8 +1050,11 @@
       <c r="E24" s="2">
         <v>45078.386111111111</v>
       </c>
-    </row>
-    <row r="25" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="F24" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="25" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A25">
         <v>1</v>
       </c>
@@ -847,7 +1062,7 @@
         <v>15</v>
       </c>
       <c r="C25" t="s">
-        <v>9</v>
+        <v>14</v>
       </c>
       <c r="D25" s="2">
         <v>45078.386805555558</v>
@@ -855,8 +1070,11 @@
       <c r="E25" s="2">
         <v>45078.573611111111</v>
       </c>
-    </row>
-    <row r="26" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="F25" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="26" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A26">
         <v>1</v>
       </c>
@@ -864,7 +1082,7 @@
         <v>51</v>
       </c>
       <c r="C26" t="s">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="D26" s="2">
         <v>45078.574305555558</v>
@@ -872,8 +1090,11 @@
       <c r="E26" s="2">
         <v>45078.651388888888</v>
       </c>
-    </row>
-    <row r="27" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="F26" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="27" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A27">
         <v>1</v>
       </c>
@@ -881,7 +1102,7 @@
         <v>51</v>
       </c>
       <c r="C27" t="s">
-        <v>7</v>
+        <v>10</v>
       </c>
       <c r="D27" s="2">
         <v>45078.652083333327</v>
@@ -889,8 +1110,11 @@
       <c r="E27" s="2">
         <v>45078.661805555559</v>
       </c>
-    </row>
-    <row r="28" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="F27" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="28" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A28">
         <v>1</v>
       </c>
@@ -898,7 +1122,7 @@
         <v>51</v>
       </c>
       <c r="C28" t="s">
-        <v>10</v>
+        <v>20</v>
       </c>
       <c r="D28" s="2">
         <v>45078.662499999999</v>
@@ -906,8 +1130,11 @@
       <c r="E28" s="2">
         <v>45078.672222222223</v>
       </c>
-    </row>
-    <row r="29" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="F28" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="29" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A29">
         <v>1</v>
       </c>
@@ -915,7 +1142,7 @@
         <v>59</v>
       </c>
       <c r="C29" t="s">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="D29" s="2">
         <v>45078.67291666667</v>
@@ -923,8 +1150,11 @@
       <c r="E29" s="2">
         <v>45078.856249999997</v>
       </c>
-    </row>
-    <row r="30" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="F29" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="30" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A30">
         <v>1</v>
       </c>
@@ -932,7 +1162,7 @@
         <v>59</v>
       </c>
       <c r="C30" t="s">
-        <v>7</v>
+        <v>10</v>
       </c>
       <c r="D30" s="2">
         <v>45078.856944444437</v>
@@ -940,8 +1170,11 @@
       <c r="E30" s="2">
         <v>45078.866666666669</v>
       </c>
-    </row>
-    <row r="31" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="F30" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="31" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A31">
         <v>1</v>
       </c>
@@ -949,7 +1182,7 @@
         <v>59</v>
       </c>
       <c r="C31" t="s">
-        <v>9</v>
+        <v>14</v>
       </c>
       <c r="D31" s="2">
         <v>45078.867361111108</v>
@@ -957,8 +1190,11 @@
       <c r="E31" s="2">
         <v>45078.873611111107</v>
       </c>
-    </row>
-    <row r="32" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="F31" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="32" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A32">
         <v>1</v>
       </c>
@@ -966,7 +1202,7 @@
         <v>85</v>
       </c>
       <c r="C32" t="s">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="D32" s="2">
         <v>45078.874305555553</v>
@@ -974,8 +1210,11 @@
       <c r="E32" s="2">
         <v>45078.931944444441</v>
       </c>
-    </row>
-    <row r="33" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="F32" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="33" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A33">
         <v>1</v>
       </c>
@@ -983,7 +1222,7 @@
         <v>85</v>
       </c>
       <c r="C33" t="s">
-        <v>7</v>
+        <v>10</v>
       </c>
       <c r="D33" s="2">
         <v>45078.932638888888</v>
@@ -991,8 +1230,11 @@
       <c r="E33" s="2">
         <v>45078.942361111112</v>
       </c>
-    </row>
-    <row r="34" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="F33" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="34" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A34">
         <v>1</v>
       </c>
@@ -1000,7 +1242,7 @@
         <v>85</v>
       </c>
       <c r="C34" t="s">
-        <v>10</v>
+        <v>20</v>
       </c>
       <c r="D34" s="2">
         <v>45078.943055555559</v>
@@ -1008,8 +1250,11 @@
       <c r="E34" s="2">
         <v>45078.952777777777</v>
       </c>
-    </row>
-    <row r="35" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="F34" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="35" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A35">
         <v>1</v>
       </c>
@@ -1017,7 +1262,7 @@
         <v>1272</v>
       </c>
       <c r="C35" t="s">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="D35" s="2">
         <v>45078.953472222223</v>
@@ -1025,8 +1270,11 @@
       <c r="E35" s="2">
         <v>45078.977777777778</v>
       </c>
-    </row>
-    <row r="36" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="F35" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="36" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A36">
         <v>1</v>
       </c>
@@ -1034,7 +1282,7 @@
         <v>1272</v>
       </c>
       <c r="C36" t="s">
-        <v>7</v>
+        <v>10</v>
       </c>
       <c r="D36" s="2">
         <v>45078.978472222218</v>
@@ -1042,8 +1290,11 @@
       <c r="E36" s="2">
         <v>45078.988194444442</v>
       </c>
-    </row>
-    <row r="37" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="F36" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="37" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A37">
         <v>1</v>
       </c>
@@ -1051,7 +1302,7 @@
         <v>1272</v>
       </c>
       <c r="C37" t="s">
-        <v>10</v>
+        <v>20</v>
       </c>
       <c r="D37" s="2">
         <v>45078.988888888889</v>
@@ -1059,8 +1310,11 @@
       <c r="E37" s="2">
         <v>45078.998611111107</v>
       </c>
-    </row>
-    <row r="38" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="F37" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="38" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A38">
         <v>2</v>
       </c>
@@ -1068,7 +1322,7 @@
         <v>1</v>
       </c>
       <c r="C38" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="D38" s="2">
         <v>45078</v>
@@ -1076,8 +1330,11 @@
       <c r="E38" s="2">
         <v>45078.082638888889</v>
       </c>
-    </row>
-    <row r="39" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="F38" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="39" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A39">
         <v>2</v>
       </c>
@@ -1085,7 +1342,7 @@
         <v>1</v>
       </c>
       <c r="C39" t="s">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="D39" s="2">
         <v>45078.083333333343</v>
@@ -1093,8 +1350,11 @@
       <c r="E39" s="2">
         <v>45078.125694444447</v>
       </c>
-    </row>
-    <row r="40" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="F39" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="40" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A40">
         <v>2</v>
       </c>
@@ -1102,7 +1362,7 @@
         <v>1</v>
       </c>
       <c r="C40" t="s">
-        <v>7</v>
+        <v>10</v>
       </c>
       <c r="D40" s="2">
         <v>45078.126388888893</v>
@@ -1110,8 +1370,11 @@
       <c r="E40" s="2">
         <v>45078.136111111111</v>
       </c>
-    </row>
-    <row r="41" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="F40" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="41" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A41">
         <v>2</v>
       </c>
@@ -1119,7 +1382,7 @@
         <v>1</v>
       </c>
       <c r="C41" t="s">
-        <v>10</v>
+        <v>20</v>
       </c>
       <c r="D41" s="2">
         <v>45078.136805555558</v>
@@ -1127,8 +1390,11 @@
       <c r="E41" s="2">
         <v>45078.146527777782</v>
       </c>
-    </row>
-    <row r="42" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="F41" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="42" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A42">
         <v>2</v>
       </c>
@@ -1136,7 +1402,7 @@
         <v>87</v>
       </c>
       <c r="C42" t="s">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="D42" s="2">
         <v>45078.147222222222</v>
@@ -1144,8 +1410,11 @@
       <c r="E42" s="2">
         <v>45078.234027777777</v>
       </c>
-    </row>
-    <row r="43" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="F42" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="43" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A43">
         <v>2</v>
       </c>
@@ -1153,7 +1422,7 @@
         <v>87</v>
       </c>
       <c r="C43" t="s">
-        <v>7</v>
+        <v>10</v>
       </c>
       <c r="D43" s="2">
         <v>45078.234722222223</v>
@@ -1161,8 +1430,11 @@
       <c r="E43" s="2">
         <v>45078.244444444441</v>
       </c>
-    </row>
-    <row r="44" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="F43" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="44" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A44">
         <v>2</v>
       </c>
@@ -1170,7 +1442,7 @@
         <v>87</v>
       </c>
       <c r="C44" t="s">
-        <v>10</v>
+        <v>20</v>
       </c>
       <c r="D44" s="2">
         <v>45078.245138888888</v>
@@ -1178,8 +1450,11 @@
       <c r="E44" s="2">
         <v>45078.254861111112</v>
       </c>
-    </row>
-    <row r="45" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="F44" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="45" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A45">
         <v>2</v>
       </c>
@@ -1187,7 +1462,7 @@
         <v>102</v>
       </c>
       <c r="C45" t="s">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="D45" s="2">
         <v>45078.255555555559</v>
@@ -1195,8 +1470,11 @@
       <c r="E45" s="2">
         <v>45078.402777777781</v>
       </c>
-    </row>
-    <row r="46" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="F45" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="46" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A46">
         <v>2</v>
       </c>
@@ -1204,7 +1482,7 @@
         <v>102</v>
       </c>
       <c r="C46" t="s">
-        <v>7</v>
+        <v>10</v>
       </c>
       <c r="D46" s="2">
         <v>45078.40347222222</v>
@@ -1212,8 +1490,11 @@
       <c r="E46" s="2">
         <v>45078.413194444453</v>
       </c>
-    </row>
-    <row r="47" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="F46" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="47" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A47">
         <v>2</v>
       </c>
@@ -1221,7 +1502,7 @@
         <v>102</v>
       </c>
       <c r="C47" t="s">
-        <v>10</v>
+        <v>20</v>
       </c>
       <c r="D47" s="2">
         <v>45078.413888888892</v>
@@ -1229,8 +1510,11 @@
       <c r="E47" s="2">
         <v>45078.423611111109</v>
       </c>
-    </row>
-    <row r="48" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="F47" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="48" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A48">
         <v>2</v>
       </c>
@@ -1238,7 +1522,7 @@
         <v>108</v>
       </c>
       <c r="C48" t="s">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="D48" s="2">
         <v>45078.424305555563</v>
@@ -1246,8 +1530,11 @@
       <c r="E48" s="2">
         <v>45078.474305555559</v>
       </c>
-    </row>
-    <row r="49" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="F48" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="49" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A49">
         <v>2</v>
       </c>
@@ -1255,7 +1542,7 @@
         <v>108</v>
       </c>
       <c r="C49" t="s">
-        <v>7</v>
+        <v>10</v>
       </c>
       <c r="D49" s="2">
         <v>45078.474999999999</v>
@@ -1263,8 +1550,11 @@
       <c r="E49" s="2">
         <v>45078.484722222223</v>
       </c>
-    </row>
-    <row r="50" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="F49" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="50" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A50">
         <v>2</v>
       </c>
@@ -1272,7 +1562,7 @@
         <v>108</v>
       </c>
       <c r="C50" t="s">
-        <v>10</v>
+        <v>20</v>
       </c>
       <c r="D50" s="2">
         <v>45078.48541666667</v>
@@ -1280,8 +1570,11 @@
       <c r="E50" s="2">
         <v>45078.495138888888</v>
       </c>
-    </row>
-    <row r="51" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="F50" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="51" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A51">
         <v>2</v>
       </c>
@@ -1289,7 +1582,7 @@
         <v>118</v>
       </c>
       <c r="C51" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="D51" s="2">
         <v>45078.495833333327</v>
@@ -1297,8 +1590,11 @@
       <c r="E51" s="2">
         <v>45078.578472222223</v>
       </c>
-    </row>
-    <row r="52" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="F51" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="52" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A52">
         <v>2</v>
       </c>
@@ -1306,7 +1602,7 @@
         <v>118</v>
       </c>
       <c r="C52" t="s">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="D52" s="2">
         <v>45078.57916666667</v>
@@ -1314,8 +1610,11 @@
       <c r="E52" s="2">
         <v>45078.663888888892</v>
       </c>
-    </row>
-    <row r="53" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="F52" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="53" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A53">
         <v>2</v>
       </c>
@@ -1323,7 +1622,7 @@
         <v>118</v>
       </c>
       <c r="C53" t="s">
-        <v>7</v>
+        <v>10</v>
       </c>
       <c r="D53" s="2">
         <v>45078.664583333331</v>
@@ -1331,8 +1630,11 @@
       <c r="E53" s="2">
         <v>45078.674305555563</v>
       </c>
-    </row>
-    <row r="54" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="F53" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="54" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A54">
         <v>2</v>
       </c>
@@ -1340,7 +1642,7 @@
         <v>118</v>
       </c>
       <c r="C54" t="s">
-        <v>10</v>
+        <v>20</v>
       </c>
       <c r="D54" s="2">
         <v>45078.675000000003</v>
@@ -1348,8 +1650,11 @@
       <c r="E54" s="2">
         <v>45078.68472222222</v>
       </c>
-    </row>
-    <row r="55" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="F54" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="55" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A55">
         <v>2</v>
       </c>
@@ -1357,7 +1662,7 @@
         <v>146</v>
       </c>
       <c r="C55" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="D55" s="2">
         <v>45078.685416666667</v>
@@ -1365,8 +1670,11 @@
       <c r="E55" s="2">
         <v>45078.768055555563</v>
       </c>
-    </row>
-    <row r="56" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="F55" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="56" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A56">
         <v>2</v>
       </c>
@@ -1374,7 +1682,7 @@
         <v>146</v>
       </c>
       <c r="C56" t="s">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="D56" s="2">
         <v>45078.768750000003</v>
@@ -1382,8 +1690,11 @@
       <c r="E56" s="2">
         <v>45078.811111111107</v>
       </c>
-    </row>
-    <row r="57" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="F56" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="57" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A57">
         <v>2</v>
       </c>
@@ -1391,7 +1702,7 @@
         <v>146</v>
       </c>
       <c r="C57" t="s">
-        <v>7</v>
+        <v>10</v>
       </c>
       <c r="D57" s="2">
         <v>45078.811805555553</v>
@@ -1399,8 +1710,11 @@
       <c r="E57" s="2">
         <v>45078.821527777778</v>
       </c>
-    </row>
-    <row r="58" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="F57" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="58" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A58">
         <v>2</v>
       </c>
@@ -1408,7 +1722,7 @@
         <v>146</v>
       </c>
       <c r="C58" t="s">
-        <v>10</v>
+        <v>20</v>
       </c>
       <c r="D58" s="2">
         <v>45078.822222222218</v>
@@ -1416,8 +1730,11 @@
       <c r="E58" s="2">
         <v>45078.831944444442</v>
       </c>
-    </row>
-    <row r="59" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="F58" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="59" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A59">
         <v>2</v>
       </c>
@@ -1425,7 +1742,7 @@
         <v>241</v>
       </c>
       <c r="C59" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="D59" s="2">
         <v>45078.832638888889</v>
@@ -1433,8 +1750,11 @@
       <c r="E59" s="2">
         <v>45078.915277777778</v>
       </c>
-    </row>
-    <row r="60" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="F59" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="60" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A60">
         <v>2</v>
       </c>
@@ -1442,7 +1762,7 @@
         <v>241</v>
       </c>
       <c r="C60" t="s">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="D60" s="2">
         <v>45078.915972222218</v>
@@ -1450,8 +1770,11 @@
       <c r="E60" s="2">
         <v>45078.972916666673</v>
       </c>
-    </row>
-    <row r="61" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="F60" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="61" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A61">
         <v>2</v>
       </c>
@@ -1459,7 +1782,7 @@
         <v>241</v>
       </c>
       <c r="C61" t="s">
-        <v>7</v>
+        <v>10</v>
       </c>
       <c r="D61" s="2">
         <v>45078.973611111112</v>
@@ -1467,8 +1790,11 @@
       <c r="E61" s="2">
         <v>45078.98333333333</v>
       </c>
-    </row>
-    <row r="62" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="F61" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="62" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A62">
         <v>2</v>
       </c>
@@ -1476,7 +1802,7 @@
         <v>241</v>
       </c>
       <c r="C62" t="s">
-        <v>10</v>
+        <v>20</v>
       </c>
       <c r="D62" s="2">
         <v>45078.984027777777</v>
@@ -1484,8 +1810,11 @@
       <c r="E62" s="2">
         <v>45078.993750000001</v>
       </c>
-    </row>
-    <row r="63" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="F62" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="63" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A63">
         <v>3</v>
       </c>
@@ -1493,7 +1822,7 @@
         <v>61</v>
       </c>
       <c r="C63" t="s">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="D63" s="2">
         <v>45078</v>
@@ -1501,8 +1830,11 @@
       <c r="E63" s="2">
         <v>45078.200694444437</v>
       </c>
-    </row>
-    <row r="64" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="F63" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="64" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A64">
         <v>3</v>
       </c>
@@ -1510,7 +1842,7 @@
         <v>61</v>
       </c>
       <c r="C64" t="s">
-        <v>7</v>
+        <v>10</v>
       </c>
       <c r="D64" s="2">
         <v>45078.097222222219</v>
@@ -1518,8 +1850,11 @@
       <c r="E64" s="2">
         <v>45078.106944444437</v>
       </c>
-    </row>
-    <row r="65" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="F64" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="65" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A65">
         <v>3</v>
       </c>
@@ -1527,7 +1862,7 @@
         <v>61</v>
       </c>
       <c r="C65" t="s">
-        <v>9</v>
+        <v>14</v>
       </c>
       <c r="D65" s="2">
         <v>45078.107638888891</v>
@@ -1535,8 +1870,11 @@
       <c r="E65" s="2">
         <v>45078.211111111108</v>
       </c>
-    </row>
-    <row r="66" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="F65" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="66" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A66">
         <v>3</v>
       </c>
@@ -1544,7 +1882,7 @@
         <v>64</v>
       </c>
       <c r="C66" t="s">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="D66" s="2">
         <v>45078.211805555547</v>
@@ -1552,8 +1890,11 @@
       <c r="E66" s="2">
         <v>45078.572916666657</v>
       </c>
-    </row>
-    <row r="67" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="F66" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="67" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A67">
         <v>3</v>
       </c>
@@ -1561,7 +1902,7 @@
         <v>64</v>
       </c>
       <c r="C67" t="s">
-        <v>7</v>
+        <v>10</v>
       </c>
       <c r="D67" s="2">
         <v>45078.375694444447</v>
@@ -1569,8 +1910,11 @@
       <c r="E67" s="2">
         <v>45078.385416666657</v>
       </c>
-    </row>
-    <row r="68" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="F67" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="68" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A68">
         <v>3</v>
       </c>
@@ -1578,7 +1922,7 @@
         <v>64</v>
       </c>
       <c r="C68" t="s">
-        <v>9</v>
+        <v>14</v>
       </c>
       <c r="D68" s="2">
         <v>45078.386111111111</v>
@@ -1586,8 +1930,11 @@
       <c r="E68" s="2">
         <v>45078.579861111109</v>
       </c>
-    </row>
-    <row r="69" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="F68" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="69" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A69">
         <v>3</v>
       </c>
@@ -1595,7 +1942,7 @@
         <v>144</v>
       </c>
       <c r="C69" t="s">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="D69" s="2">
         <v>45078.580555555563</v>
@@ -1603,8 +1950,11 @@
       <c r="E69" s="2">
         <v>45078.761805555558</v>
       </c>
-    </row>
-    <row r="70" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="F69" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="70" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A70">
         <v>3</v>
       </c>
@@ -1612,7 +1962,7 @@
         <v>144</v>
       </c>
       <c r="C70" t="s">
-        <v>7</v>
+        <v>10</v>
       </c>
       <c r="D70" s="2">
         <v>45078.762499999997</v>
@@ -1620,8 +1970,11 @@
       <c r="E70" s="2">
         <v>45078.772222222222</v>
       </c>
-    </row>
-    <row r="71" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="F70" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="71" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A71">
         <v>3</v>
       </c>
@@ -1629,7 +1982,7 @@
         <v>144</v>
       </c>
       <c r="C71" t="s">
-        <v>9</v>
+        <v>14</v>
       </c>
       <c r="D71" s="2">
         <v>45078.772916666669</v>
@@ -1637,8 +1990,11 @@
       <c r="E71" s="2">
         <v>45078.786111111112</v>
       </c>
-    </row>
-    <row r="72" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="F71" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="72" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A72">
         <v>3</v>
       </c>
@@ -1646,7 +2002,7 @@
         <v>153</v>
       </c>
       <c r="C72" t="s">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="D72" s="2">
         <v>45078.786805555559</v>
@@ -1654,8 +2010,11 @@
       <c r="E72" s="2">
         <v>45078.927777777782</v>
       </c>
-    </row>
-    <row r="73" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="F72" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="73" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A73">
         <v>3</v>
       </c>
@@ -1663,7 +2022,7 @@
         <v>153</v>
       </c>
       <c r="C73" t="s">
-        <v>7</v>
+        <v>10</v>
       </c>
       <c r="D73" s="2">
         <v>45078.820833333331</v>
@@ -1671,8 +2030,11 @@
       <c r="E73" s="2">
         <v>45078.830555555563</v>
       </c>
-    </row>
-    <row r="74" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="F73" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="74" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A74">
         <v>3</v>
       </c>
@@ -1680,7 +2042,7 @@
         <v>153</v>
       </c>
       <c r="C74" t="s">
-        <v>9</v>
+        <v>14</v>
       </c>
       <c r="D74" s="2">
         <v>45078.831250000003</v>
@@ -1688,8 +2050,11 @@
       <c r="E74" s="2">
         <v>45078.938194444447</v>
       </c>
-    </row>
-    <row r="75" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="F74" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="75" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A75">
         <v>3</v>
       </c>
@@ -1697,7 +2062,7 @@
         <v>226</v>
       </c>
       <c r="C75" t="s">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="D75" s="2">
         <v>45078.938888888893</v>
@@ -1705,8 +2070,11 @@
       <c r="E75" s="2">
         <v>45078.976388888892</v>
       </c>
-    </row>
-    <row r="76" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="F75" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="76" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A76">
         <v>3</v>
       </c>
@@ -1714,7 +2082,7 @@
         <v>226</v>
       </c>
       <c r="C76" t="s">
-        <v>7</v>
+        <v>10</v>
       </c>
       <c r="D76" s="2">
         <v>45078.977083333331</v>
@@ -1722,8 +2090,11 @@
       <c r="E76" s="2">
         <v>45078.986805555563</v>
       </c>
-    </row>
-    <row r="77" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="F76" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="77" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A77">
         <v>3</v>
       </c>
@@ -1731,7 +2102,7 @@
         <v>226</v>
       </c>
       <c r="C77" t="s">
-        <v>9</v>
+        <v>14</v>
       </c>
       <c r="D77" s="2">
         <v>45078.987500000003</v>
@@ -1739,8 +2110,11 @@
       <c r="E77" s="2">
         <v>45078.99722222222</v>
       </c>
-    </row>
-    <row r="78" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="F77" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="78" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A78">
         <v>4</v>
       </c>
@@ -1748,7 +2122,7 @@
         <v>6</v>
       </c>
       <c r="C78" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="D78" s="2">
         <v>45078</v>
@@ -1756,8 +2130,11 @@
       <c r="E78" s="2">
         <v>45078.082638888889</v>
       </c>
-    </row>
-    <row r="79" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="F78" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="79" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A79">
         <v>4</v>
       </c>
@@ -1765,7 +2142,7 @@
         <v>6</v>
       </c>
       <c r="C79" t="s">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="D79" s="2">
         <v>45078.083333333343</v>
@@ -1773,8 +2150,11 @@
       <c r="E79" s="2">
         <v>45078.131944444453</v>
       </c>
-    </row>
-    <row r="80" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="F79" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="80" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A80">
         <v>4</v>
       </c>
@@ -1782,7 +2162,7 @@
         <v>6</v>
       </c>
       <c r="C80" t="s">
-        <v>7</v>
+        <v>10</v>
       </c>
       <c r="D80" s="2">
         <v>45078.132638888892</v>
@@ -1790,8 +2170,11 @@
       <c r="E80" s="2">
         <v>45078.142361111109</v>
       </c>
-    </row>
-    <row r="81" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="F80" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="81" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A81">
         <v>4</v>
       </c>
@@ -1799,7 +2182,7 @@
         <v>6</v>
       </c>
       <c r="C81" t="s">
-        <v>10</v>
+        <v>20</v>
       </c>
       <c r="D81" s="2">
         <v>45078.143055555563</v>
@@ -1807,8 +2190,11 @@
       <c r="E81" s="2">
         <v>45078.152777777781</v>
       </c>
-    </row>
-    <row r="82" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="F81" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="82" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A82">
         <v>4</v>
       </c>
@@ -1816,7 +2202,7 @@
         <v>9</v>
       </c>
       <c r="C82" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="D82" s="2">
         <v>45078.15347222222</v>
@@ -1824,8 +2210,11 @@
       <c r="E82" s="2">
         <v>45078.236111111109</v>
       </c>
-    </row>
-    <row r="83" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="F82" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="83" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A83">
         <v>4</v>
       </c>
@@ -1833,7 +2222,7 @@
         <v>9</v>
       </c>
       <c r="C83" t="s">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="D83" s="2">
         <v>45078.236805555563</v>
@@ -1841,8 +2230,11 @@
       <c r="E83" s="2">
         <v>45078.38958333333</v>
       </c>
-    </row>
-    <row r="84" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="F83" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="84" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A84">
         <v>4</v>
       </c>
@@ -1850,7 +2242,7 @@
         <v>9</v>
       </c>
       <c r="C84" t="s">
-        <v>7</v>
+        <v>10</v>
       </c>
       <c r="D84" s="2">
         <v>45078.390277777777</v>
@@ -1858,8 +2250,11 @@
       <c r="E84" s="2">
         <v>45078.400000000001</v>
       </c>
-    </row>
-    <row r="85" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="F84" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="85" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A85">
         <v>4</v>
       </c>
@@ -1867,7 +2262,7 @@
         <v>9</v>
       </c>
       <c r="C85" t="s">
-        <v>10</v>
+        <v>20</v>
       </c>
       <c r="D85" s="2">
         <v>45078.400694444441</v>
@@ -1875,8 +2270,11 @@
       <c r="E85" s="2">
         <v>45078.410416666673</v>
       </c>
-    </row>
-    <row r="86" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="F85" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="86" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A86">
         <v>4</v>
       </c>
@@ -1884,7 +2282,7 @@
         <v>11</v>
       </c>
       <c r="C86" t="s">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="D86" s="2">
         <v>45078.411111111112</v>
@@ -1892,8 +2290,11 @@
       <c r="E86" s="2">
         <v>45078.59652777778</v>
       </c>
-    </row>
-    <row r="87" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="F86" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="87" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A87">
         <v>4</v>
       </c>
@@ -1901,7 +2302,7 @@
         <v>11</v>
       </c>
       <c r="C87" t="s">
-        <v>7</v>
+        <v>10</v>
       </c>
       <c r="D87" s="2">
         <v>45078.597222222219</v>
@@ -1909,8 +2310,11 @@
       <c r="E87" s="2">
         <v>45078.606944444437</v>
       </c>
-    </row>
-    <row r="88" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="F87" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="88" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A88">
         <v>4</v>
       </c>
@@ -1918,7 +2322,7 @@
         <v>11</v>
       </c>
       <c r="C88" t="s">
-        <v>10</v>
+        <v>20</v>
       </c>
       <c r="D88" s="2">
         <v>45078.607638888891</v>
@@ -1926,8 +2330,11 @@
       <c r="E88" s="2">
         <v>45078.617361111108</v>
       </c>
-    </row>
-    <row r="89" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="F88" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="89" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A89">
         <v>4</v>
       </c>
@@ -1935,7 +2342,7 @@
         <v>40</v>
       </c>
       <c r="C89" t="s">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="D89" s="2">
         <v>45078.618055555547</v>
@@ -1943,8 +2350,11 @@
       <c r="E89" s="2">
         <v>45078.824305555558</v>
       </c>
-    </row>
-    <row r="90" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="F89" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="90" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A90">
         <v>4</v>
       </c>
@@ -1952,7 +2362,7 @@
         <v>40</v>
       </c>
       <c r="C90" t="s">
-        <v>7</v>
+        <v>10</v>
       </c>
       <c r="D90" s="2">
         <v>45078.824999999997</v>
@@ -1960,8 +2370,11 @@
       <c r="E90" s="2">
         <v>45078.834722222222</v>
       </c>
-    </row>
-    <row r="91" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="F90" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="91" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A91">
         <v>4</v>
       </c>
@@ -1969,7 +2382,7 @@
         <v>40</v>
       </c>
       <c r="C91" t="s">
-        <v>10</v>
+        <v>20</v>
       </c>
       <c r="D91" s="2">
         <v>45078.835416666669</v>
@@ -1977,8 +2390,11 @@
       <c r="E91" s="2">
         <v>45078.845138888893</v>
       </c>
-    </row>
-    <row r="92" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="F91" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="92" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A92">
         <v>4</v>
       </c>
@@ -1986,7 +2402,7 @@
         <v>112</v>
       </c>
       <c r="C92" t="s">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="D92" s="2">
         <v>45078.845833333333</v>
@@ -1994,8 +2410,11 @@
       <c r="E92" s="2">
         <v>45078.972222222219</v>
       </c>
-    </row>
-    <row r="93" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="F92" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="93" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A93">
         <v>4</v>
       </c>
@@ -2003,7 +2422,7 @@
         <v>112</v>
       </c>
       <c r="C93" t="s">
-        <v>7</v>
+        <v>10</v>
       </c>
       <c r="D93" s="2">
         <v>45078.972916666673</v>
@@ -2011,8 +2430,11 @@
       <c r="E93" s="2">
         <v>45078.982638888891</v>
       </c>
-    </row>
-    <row r="94" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="F93" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="94" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A94">
         <v>4</v>
       </c>
@@ -2020,7 +2442,7 @@
         <v>112</v>
       </c>
       <c r="C94" t="s">
-        <v>10</v>
+        <v>20</v>
       </c>
       <c r="D94" s="2">
         <v>45078.98333333333</v>
@@ -2028,8 +2450,11 @@
       <c r="E94" s="2">
         <v>45078.993055555547</v>
       </c>
-    </row>
-    <row r="95" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="F94" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="95" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A95">
         <v>5</v>
       </c>
@@ -2037,7 +2462,7 @@
         <v>26</v>
       </c>
       <c r="C95" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="D95" s="2">
         <v>45078</v>
@@ -2045,8 +2470,11 @@
       <c r="E95" s="2">
         <v>45078.082638888889</v>
       </c>
-    </row>
-    <row r="96" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="F95" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="96" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A96">
         <v>5</v>
       </c>
@@ -2054,7 +2482,7 @@
         <v>26</v>
       </c>
       <c r="C96" t="s">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="D96" s="2">
         <v>45078.083333333343</v>
@@ -2062,8 +2490,11 @@
       <c r="E96" s="2">
         <v>45078.28402777778</v>
       </c>
-    </row>
-    <row r="97" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="F96" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="97" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A97">
         <v>5</v>
       </c>
@@ -2071,7 +2502,7 @@
         <v>26</v>
       </c>
       <c r="C97" t="s">
-        <v>7</v>
+        <v>10</v>
       </c>
       <c r="D97" s="2">
         <v>45078.177083333343</v>
@@ -2079,8 +2510,11 @@
       <c r="E97" s="2">
         <v>45078.186805555553</v>
       </c>
-    </row>
-    <row r="98" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="F97" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="98" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A98">
         <v>5</v>
       </c>
@@ -2088,7 +2522,7 @@
         <v>26</v>
       </c>
       <c r="C98" t="s">
-        <v>9</v>
+        <v>14</v>
       </c>
       <c r="D98" s="2">
         <v>45078.1875</v>
@@ -2096,8 +2530,11 @@
       <c r="E98" s="2">
         <v>45078.29791666667</v>
       </c>
-    </row>
-    <row r="99" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="F98" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="99" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A99">
         <v>5</v>
       </c>
@@ -2105,7 +2542,7 @@
         <v>168</v>
       </c>
       <c r="C99" t="s">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="D99" s="2">
         <v>45078.298611111109</v>
@@ -2113,8 +2550,11 @@
       <c r="E99" s="2">
         <v>45078.606249999997</v>
       </c>
-    </row>
-    <row r="100" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="F99" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="100" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A100">
         <v>5</v>
       </c>
@@ -2122,7 +2562,7 @@
         <v>168</v>
       </c>
       <c r="C100" t="s">
-        <v>7</v>
+        <v>10</v>
       </c>
       <c r="D100" s="2">
         <v>45078.50277777778</v>
@@ -2130,8 +2570,11 @@
       <c r="E100" s="2">
         <v>45078.512499999997</v>
       </c>
-    </row>
-    <row r="101" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="F100" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="101" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A101">
         <v>5</v>
       </c>
@@ -2139,7 +2582,7 @@
         <v>168</v>
       </c>
       <c r="C101" t="s">
-        <v>9</v>
+        <v>14</v>
       </c>
       <c r="D101" s="2">
         <v>45078.513194444437</v>
@@ -2147,8 +2590,11 @@
       <c r="E101" s="2">
         <v>45078.613194444442</v>
       </c>
-    </row>
-    <row r="102" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="F101" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="102" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A102">
         <v>5</v>
       </c>
@@ -2156,7 +2602,7 @@
         <v>220</v>
       </c>
       <c r="C102" t="s">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="D102" s="2">
         <v>45078.613888888889</v>
@@ -2164,8 +2610,11 @@
       <c r="E102" s="2">
         <v>45078.826388888891</v>
       </c>
-    </row>
-    <row r="103" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="F102" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="103" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A103">
         <v>5</v>
       </c>
@@ -2173,7 +2622,7 @@
         <v>220</v>
       </c>
       <c r="C103" t="s">
-        <v>7</v>
+        <v>10</v>
       </c>
       <c r="D103" s="2">
         <v>45078.722916666673</v>
@@ -2181,8 +2630,11 @@
       <c r="E103" s="2">
         <v>45078.732638888891</v>
       </c>
-    </row>
-    <row r="104" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="F103" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="104" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A104">
         <v>5</v>
       </c>
@@ -2190,7 +2642,7 @@
         <v>220</v>
       </c>
       <c r="C104" t="s">
-        <v>9</v>
+        <v>14</v>
       </c>
       <c r="D104" s="2">
         <v>45078.73333333333</v>
@@ -2198,8 +2650,11 @@
       <c r="E104" s="2">
         <v>45078.840277777781</v>
       </c>
-    </row>
-    <row r="105" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="F104" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="105" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A105">
         <v>5</v>
       </c>
@@ -2207,7 +2662,7 @@
         <v>607</v>
       </c>
       <c r="C105" t="s">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="D105" s="2">
         <v>45078.84097222222</v>
@@ -2215,8 +2670,11 @@
       <c r="E105" s="2">
         <v>45078.9</v>
       </c>
-    </row>
-    <row r="106" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="F105" t="s">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="106" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A106">
         <v>5</v>
       </c>
@@ -2224,7 +2682,7 @@
         <v>607</v>
       </c>
       <c r="C106" t="s">
-        <v>7</v>
+        <v>10</v>
       </c>
       <c r="D106" s="2">
         <v>45078.900694444441</v>
@@ -2232,8 +2690,11 @@
       <c r="E106" s="2">
         <v>45078.910416666673</v>
       </c>
-    </row>
-    <row r="107" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="F106" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="107" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A107">
         <v>5</v>
       </c>
@@ -2241,7 +2702,7 @@
         <v>607</v>
       </c>
       <c r="C107" t="s">
-        <v>9</v>
+        <v>14</v>
       </c>
       <c r="D107" s="2">
         <v>45078.911111111112</v>
@@ -2249,8 +2710,11 @@
       <c r="E107" s="2">
         <v>45078.92083333333</v>
       </c>
-    </row>
-    <row r="108" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="F107" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="108" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A108">
         <v>5</v>
       </c>
@@ -2258,7 +2722,7 @@
         <v>731</v>
       </c>
       <c r="C108" t="s">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="D108" s="2">
         <v>45078.921527777777</v>
@@ -2266,8 +2730,11 @@
       <c r="E108" s="2">
         <v>45078.978472222218</v>
       </c>
-    </row>
-    <row r="109" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="F108" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="109" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A109">
         <v>5</v>
       </c>
@@ -2275,7 +2742,7 @@
         <v>731</v>
       </c>
       <c r="C109" t="s">
-        <v>7</v>
+        <v>10</v>
       </c>
       <c r="D109" s="2">
         <v>45078.979166666657</v>
@@ -2283,8 +2750,11 @@
       <c r="E109" s="2">
         <v>45078.988888888889</v>
       </c>
-    </row>
-    <row r="110" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="F109" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="110" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A110">
         <v>5</v>
       </c>
@@ -2292,7 +2762,7 @@
         <v>731</v>
       </c>
       <c r="C110" t="s">
-        <v>9</v>
+        <v>14</v>
       </c>
       <c r="D110" s="2">
         <v>45078.989583333343</v>
@@ -2300,8 +2770,11 @@
       <c r="E110" s="2">
         <v>45078.999305555553</v>
       </c>
-    </row>
-    <row r="111" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="F110" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="111" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A111">
         <v>6</v>
       </c>
@@ -2309,7 +2782,7 @@
         <v>14</v>
       </c>
       <c r="C111" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="D111" s="2">
         <v>45078</v>
@@ -2317,8 +2790,11 @@
       <c r="E111" s="2">
         <v>45078.082638888889</v>
       </c>
-    </row>
-    <row r="112" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="F111" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="112" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A112">
         <v>6</v>
       </c>
@@ -2326,7 +2802,7 @@
         <v>14</v>
       </c>
       <c r="C112" t="s">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="D112" s="2">
         <v>45078.083333333343</v>
@@ -2334,8 +2810,11 @@
       <c r="E112" s="2">
         <v>45078.290277777778</v>
       </c>
-    </row>
-    <row r="113" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="F112" t="s">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="113" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A113">
         <v>6</v>
       </c>
@@ -2343,7 +2822,7 @@
         <v>14</v>
       </c>
       <c r="C113" t="s">
-        <v>7</v>
+        <v>10</v>
       </c>
       <c r="D113" s="2">
         <v>45078.290972222218</v>
@@ -2351,8 +2830,11 @@
       <c r="E113" s="2">
         <v>45078.300694444442</v>
       </c>
-    </row>
-    <row r="114" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="F113" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="114" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A114">
         <v>6</v>
       </c>
@@ -2360,7 +2842,7 @@
         <v>14</v>
       </c>
       <c r="C114" t="s">
-        <v>10</v>
+        <v>20</v>
       </c>
       <c r="D114" s="2">
         <v>45078.301388888889</v>
@@ -2368,8 +2850,11 @@
       <c r="E114" s="2">
         <v>45078.311111111107</v>
       </c>
-    </row>
-    <row r="115" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="F114" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="115" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A115">
         <v>6</v>
       </c>
@@ -2377,7 +2862,7 @@
         <v>28</v>
       </c>
       <c r="C115" t="s">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="D115" s="2">
         <v>45078.311805555553</v>
@@ -2385,8 +2870,11 @@
       <c r="E115" s="2">
         <v>45078.37777777778</v>
       </c>
-    </row>
-    <row r="116" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="F115" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="116" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A116">
         <v>6</v>
       </c>
@@ -2394,7 +2882,7 @@
         <v>28</v>
       </c>
       <c r="C116" t="s">
-        <v>7</v>
+        <v>10</v>
       </c>
       <c r="D116" s="2">
         <v>45078.378472222219</v>
@@ -2402,8 +2890,11 @@
       <c r="E116" s="2">
         <v>45078.388194444437</v>
       </c>
-    </row>
-    <row r="117" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="F116" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="117" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A117">
         <v>6</v>
       </c>
@@ -2411,7 +2902,7 @@
         <v>28</v>
       </c>
       <c r="C117" t="s">
-        <v>10</v>
+        <v>20</v>
       </c>
       <c r="D117" s="2">
         <v>45078.388888888891</v>
@@ -2419,8 +2910,11 @@
       <c r="E117" s="2">
         <v>45078.398611111108</v>
       </c>
-    </row>
-    <row r="118" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="F117" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="118" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A118">
         <v>6</v>
       </c>
@@ -2428,7 +2922,7 @@
         <v>72</v>
       </c>
       <c r="C118" t="s">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="D118" s="2">
         <v>45078.399305555547</v>
@@ -2436,8 +2930,11 @@
       <c r="E118" s="2">
         <v>45078.48541666667</v>
       </c>
-    </row>
-    <row r="119" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="F118" t="s">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="119" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A119">
         <v>6</v>
       </c>
@@ -2445,7 +2942,7 @@
         <v>72</v>
       </c>
       <c r="C119" t="s">
-        <v>7</v>
+        <v>10</v>
       </c>
       <c r="D119" s="2">
         <v>45078.486111111109</v>
@@ -2453,8 +2950,11 @@
       <c r="E119" s="2">
         <v>45078.495833333327</v>
       </c>
-    </row>
-    <row r="120" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="F119" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="120" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A120">
         <v>6</v>
       </c>
@@ -2462,7 +2962,7 @@
         <v>72</v>
       </c>
       <c r="C120" t="s">
-        <v>10</v>
+        <v>20</v>
       </c>
       <c r="D120" s="2">
         <v>45078.496527777781</v>
@@ -2470,8 +2970,11 @@
       <c r="E120" s="2">
         <v>45078.506249999999</v>
       </c>
-    </row>
-    <row r="121" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="F120" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="121" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A121">
         <v>6</v>
       </c>
@@ -2479,7 +2982,7 @@
         <v>89</v>
       </c>
       <c r="C121" t="s">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="D121" s="2">
         <v>45078.506944444453</v>
@@ -2487,8 +2990,11 @@
       <c r="E121" s="2">
         <v>45078.618750000001</v>
       </c>
-    </row>
-    <row r="122" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="F121" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="122" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A122">
         <v>6</v>
       </c>
@@ -2496,7 +3002,7 @@
         <v>89</v>
       </c>
       <c r="C122" t="s">
-        <v>7</v>
+        <v>10</v>
       </c>
       <c r="D122" s="2">
         <v>45078.619444444441</v>
@@ -2504,8 +3010,11 @@
       <c r="E122" s="2">
         <v>45078.629166666673</v>
       </c>
-    </row>
-    <row r="123" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="F122" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="123" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A123">
         <v>6</v>
       </c>
@@ -2513,7 +3022,7 @@
         <v>89</v>
       </c>
       <c r="C123" t="s">
-        <v>10</v>
+        <v>20</v>
       </c>
       <c r="D123" s="2">
         <v>45078.629861111112</v>
@@ -2521,8 +3030,11 @@
       <c r="E123" s="2">
         <v>45078.63958333333</v>
       </c>
-    </row>
-    <row r="124" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="F123" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="124" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A124">
         <v>6</v>
       </c>
@@ -2530,7 +3042,7 @@
         <v>91</v>
       </c>
       <c r="C124" t="s">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="D124" s="2">
         <v>45078.640277777777</v>
@@ -2538,8 +3050,11 @@
       <c r="E124" s="2">
         <v>45078.72152777778</v>
       </c>
-    </row>
-    <row r="125" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="F124" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="125" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A125">
         <v>6</v>
       </c>
@@ -2547,7 +3062,7 @@
         <v>91</v>
       </c>
       <c r="C125" t="s">
-        <v>7</v>
+        <v>10</v>
       </c>
       <c r="D125" s="2">
         <v>45078.722222222219</v>
@@ -2555,8 +3070,11 @@
       <c r="E125" s="2">
         <v>45078.731944444437</v>
       </c>
-    </row>
-    <row r="126" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="F125" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="126" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A126">
         <v>6</v>
       </c>
@@ -2564,7 +3082,7 @@
         <v>91</v>
       </c>
       <c r="C126" t="s">
-        <v>10</v>
+        <v>20</v>
       </c>
       <c r="D126" s="2">
         <v>45078.732638888891</v>
@@ -2572,8 +3090,11 @@
       <c r="E126" s="2">
         <v>45078.742361111108</v>
       </c>
-    </row>
-    <row r="127" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="F126" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="127" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A127">
         <v>6</v>
       </c>
@@ -2581,7 +3102,7 @@
         <v>160</v>
       </c>
       <c r="C127" t="s">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="D127" s="2">
         <v>45078.743055555547</v>
@@ -2589,8 +3110,11 @@
       <c r="E127" s="2">
         <v>45078.884722222218</v>
       </c>
-    </row>
-    <row r="128" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="F127" t="s">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="128" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A128">
         <v>6</v>
       </c>
@@ -2598,7 +3122,7 @@
         <v>160</v>
       </c>
       <c r="C128" t="s">
-        <v>7</v>
+        <v>10</v>
       </c>
       <c r="D128" s="2">
         <v>45078.885416666657</v>
@@ -2606,8 +3130,11 @@
       <c r="E128" s="2">
         <v>45078.895138888889</v>
       </c>
-    </row>
-    <row r="129" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="F128" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="129" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A129">
         <v>6</v>
       </c>
@@ -2615,7 +3142,7 @@
         <v>160</v>
       </c>
       <c r="C129" t="s">
-        <v>10</v>
+        <v>20</v>
       </c>
       <c r="D129" s="2">
         <v>45078.895833333343</v>
@@ -2623,8 +3150,11 @@
       <c r="E129" s="2">
         <v>45078.905555555553</v>
       </c>
-    </row>
-    <row r="130" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="F129" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="130" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A130">
         <v>6</v>
       </c>
@@ -2632,7 +3162,7 @@
         <v>266</v>
       </c>
       <c r="C130" t="s">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="D130" s="2">
         <v>45078.90625</v>
@@ -2640,8 +3170,11 @@
       <c r="E130" s="2">
         <v>45078.961805555547</v>
       </c>
-    </row>
-    <row r="131" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="F130" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="131" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A131">
         <v>6</v>
       </c>
@@ -2649,7 +3182,7 @@
         <v>266</v>
       </c>
       <c r="C131" t="s">
-        <v>7</v>
+        <v>10</v>
       </c>
       <c r="D131" s="2">
         <v>45078.962500000001</v>
@@ -2657,8 +3190,11 @@
       <c r="E131" s="2">
         <v>45078.972222222219</v>
       </c>
-    </row>
-    <row r="132" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="F131" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="132" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A132">
         <v>6</v>
       </c>
@@ -2666,13 +3202,16 @@
         <v>266</v>
       </c>
       <c r="C132" t="s">
-        <v>10</v>
+        <v>20</v>
       </c>
       <c r="D132" s="2">
         <v>45078.972916666673</v>
       </c>
       <c r="E132" s="2">
         <v>45078.982638888891</v>
+      </c>
+      <c r="F132" t="s">
+        <v>11</v>
       </c>
     </row>
   </sheetData>
